--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CFB1CB-CC5B-4F8D-B0A7-F10DAC947C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7272A2B5-F0B9-4BF2-934B-5E6F8F9AE645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -186,56 +189,56 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="2"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="2"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C3</stp>
@@ -250,6 +253,8 @@
         <stp>BDH|5247090130891257875</stp>
         <tr r="F7" s="1"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -263,6 +268,8 @@
         <stp>BDH|1378406766753827437</stp>
         <tr r="C7" s="3"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -623,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1475"/>
+  <dimension ref="A1:F1478"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,26 +737,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1469")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1472")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1469")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1472")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1469")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1472")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1469")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1472")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1469")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1472")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -29418,7 +29425,7 @@
         <v>45839</v>
       </c>
       <c r="B1441">
-        <v>670.73140000000001</v>
+        <v>670.73889999999994</v>
       </c>
       <c r="C1441">
         <v>2953</v>
@@ -29427,7 +29434,7 @@
         <v>2.5609000000000002</v>
       </c>
       <c r="E1441">
-        <v>125.98990000000001</v>
+        <v>125.9974</v>
       </c>
       <c r="F1441">
         <v>69.486999999999995</v>
@@ -29438,7 +29445,7 @@
         <v>45840</v>
       </c>
       <c r="B1442">
-        <v>674.0498</v>
+        <v>674.06629999999996</v>
       </c>
       <c r="C1442">
         <v>2953</v>
@@ -29447,10 +29454,10 @@
         <v>2.5609000000000002</v>
       </c>
       <c r="E1442">
-        <v>126.8707</v>
+        <v>126.8856</v>
       </c>
       <c r="F1442">
-        <v>69.874499999999998</v>
+        <v>69.876099999999994</v>
       </c>
     </row>
     <row r="1443" spans="1:6" x14ac:dyDescent="0.25">
@@ -29458,7 +29465,7 @@
         <v>45841</v>
       </c>
       <c r="B1443">
-        <v>676.89869999999996</v>
+        <v>676.92259999999999</v>
       </c>
       <c r="C1443">
         <v>2953</v>
@@ -29467,10 +29474,10 @@
         <v>2.5609000000000002</v>
       </c>
       <c r="E1443">
-        <v>127.5133</v>
+        <v>127.5356</v>
       </c>
       <c r="F1443">
-        <v>70.242699999999999</v>
+        <v>70.244299999999996</v>
       </c>
     </row>
     <row r="1444" spans="1:6" x14ac:dyDescent="0.25">
@@ -29478,7 +29485,7 @@
         <v>45842</v>
       </c>
       <c r="B1444">
-        <v>680.10260000000005</v>
+        <v>680.13390000000004</v>
       </c>
       <c r="C1444">
         <v>3006</v>
@@ -29487,10 +29494,10 @@
         <v>2.5609000000000002</v>
       </c>
       <c r="E1444">
-        <v>128.26140000000001</v>
+        <v>128.2912</v>
       </c>
       <c r="F1444">
-        <v>70.716099999999997</v>
+        <v>70.717600000000004</v>
       </c>
     </row>
     <row r="1445" spans="1:6" x14ac:dyDescent="0.25">
@@ -29498,7 +29505,7 @@
         <v>45845</v>
       </c>
       <c r="B1445">
-        <v>691.0444</v>
+        <v>691.09569999999997</v>
       </c>
       <c r="C1445">
         <v>3006</v>
@@ -29507,10 +29514,10 @@
         <v>2.6970000000000001</v>
       </c>
       <c r="E1445">
-        <v>130.87200000000001</v>
+        <v>130.92179999999999</v>
       </c>
       <c r="F1445">
-        <v>71.979699999999994</v>
+        <v>71.981200000000001</v>
       </c>
     </row>
     <row r="1446" spans="1:6" x14ac:dyDescent="0.25">
@@ -29518,7 +29525,7 @@
         <v>45846</v>
       </c>
       <c r="B1446">
-        <v>698.37090000000001</v>
+        <v>698.37249999999995</v>
       </c>
       <c r="C1446">
         <v>3006</v>
@@ -29530,7 +29537,7 @@
         <v>135.4502</v>
       </c>
       <c r="F1446">
-        <v>72.419700000000006</v>
+        <v>72.421199999999999</v>
       </c>
     </row>
     <row r="1447" spans="1:6" x14ac:dyDescent="0.25">
@@ -29538,7 +29545,7 @@
         <v>45847</v>
       </c>
       <c r="B1447">
-        <v>698.08</v>
+        <v>698.08150000000001</v>
       </c>
       <c r="C1447">
         <v>3006</v>
@@ -29550,7 +29557,7 @@
         <v>132.3784</v>
       </c>
       <c r="F1447">
-        <v>72.894099999999995</v>
+        <v>72.895700000000005</v>
       </c>
     </row>
     <row r="1448" spans="1:6" x14ac:dyDescent="0.25">
@@ -29558,7 +29565,7 @@
         <v>45848</v>
       </c>
       <c r="B1448">
-        <v>702.0018</v>
+        <v>702.00329999999997</v>
       </c>
       <c r="C1448">
         <v>3006</v>
@@ -29570,7 +29577,7 @@
         <v>133.46770000000001</v>
       </c>
       <c r="F1448">
-        <v>73.413899999999998</v>
+        <v>73.415400000000005</v>
       </c>
     </row>
     <row r="1449" spans="1:6" x14ac:dyDescent="0.25">
@@ -29578,7 +29585,7 @@
         <v>45849</v>
       </c>
       <c r="B1449">
-        <v>705.6327</v>
+        <v>705.63430000000005</v>
       </c>
       <c r="C1449">
         <v>3052</v>
@@ -29590,7 +29597,7 @@
         <v>134.36760000000001</v>
       </c>
       <c r="F1449">
-        <v>73.945400000000006</v>
+        <v>73.947000000000003</v>
       </c>
     </row>
     <row r="1450" spans="1:6" x14ac:dyDescent="0.25">
@@ -29598,7 +29605,7 @@
         <v>45852</v>
       </c>
       <c r="B1450">
-        <v>717.95929999999998</v>
+        <v>717.97069999999997</v>
       </c>
       <c r="C1450">
         <v>3052</v>
@@ -29610,7 +29617,7 @@
         <v>137.4263</v>
       </c>
       <c r="F1450">
-        <v>75.327600000000004</v>
+        <v>75.338999999999999</v>
       </c>
     </row>
     <row r="1451" spans="1:6" x14ac:dyDescent="0.25">
@@ -29618,7 +29625,7 @@
         <v>45853</v>
       </c>
       <c r="B1451">
-        <v>721.21439999999996</v>
+        <v>721.22460000000001</v>
       </c>
       <c r="C1451">
         <v>3052</v>
@@ -29630,7 +29637,7 @@
         <v>138.0179</v>
       </c>
       <c r="F1451">
-        <v>75.830699999999993</v>
+        <v>75.840900000000005</v>
       </c>
     </row>
     <row r="1452" spans="1:6" x14ac:dyDescent="0.25">
@@ -29638,7 +29645,7 @@
         <v>45854</v>
       </c>
       <c r="B1452">
-        <v>724.35929999999996</v>
+        <v>724.36519999999996</v>
       </c>
       <c r="C1452">
         <v>3052</v>
@@ -29650,7 +29657,7 @@
         <v>138.648</v>
       </c>
       <c r="F1452">
-        <v>76.289699999999996</v>
+        <v>76.295500000000004</v>
       </c>
     </row>
     <row r="1453" spans="1:6" x14ac:dyDescent="0.25">
@@ -29658,7 +29665,7 @@
         <v>45855</v>
       </c>
       <c r="B1453">
-        <v>727.01760000000002</v>
+        <v>727.02480000000003</v>
       </c>
       <c r="C1453">
         <v>3052</v>
@@ -29670,7 +29677,7 @@
         <v>139.12729999999999</v>
       </c>
       <c r="F1453">
-        <v>76.688100000000006</v>
+        <v>76.6952</v>
       </c>
     </row>
     <row r="1454" spans="1:6" x14ac:dyDescent="0.25">
@@ -29678,7 +29685,7 @@
         <v>45856</v>
       </c>
       <c r="B1454">
-        <v>730.27149999999995</v>
+        <v>730.27959999999996</v>
       </c>
       <c r="C1454">
         <v>3075</v>
@@ -29690,7 +29697,7 @@
         <v>139.7706</v>
       </c>
       <c r="F1454">
-        <v>77.134900000000002</v>
+        <v>77.143000000000001</v>
       </c>
     </row>
     <row r="1455" spans="1:6" x14ac:dyDescent="0.25">
@@ -29698,7 +29705,7 @@
         <v>45859</v>
       </c>
       <c r="B1455">
-        <v>741.7722</v>
+        <v>741.78049999999996</v>
       </c>
       <c r="C1455">
         <v>3075</v>
@@ -29710,7 +29717,7 @@
         <v>142.58779999999999</v>
       </c>
       <c r="F1455">
-        <v>78.606200000000001</v>
+        <v>78.614400000000003</v>
       </c>
     </row>
     <row r="1456" spans="1:6" x14ac:dyDescent="0.25">
@@ -29718,7 +29725,7 @@
         <v>45860</v>
       </c>
       <c r="B1456">
-        <v>745.11170000000004</v>
+        <v>745.12049999999999</v>
       </c>
       <c r="C1456">
         <v>3075</v>
@@ -29730,7 +29737,7 @@
         <v>143.21270000000001</v>
       </c>
       <c r="F1456">
-        <v>79.211299999999994</v>
+        <v>79.220200000000006</v>
       </c>
     </row>
     <row r="1457" spans="1:6" x14ac:dyDescent="0.25">
@@ -29738,7 +29745,7 @@
         <v>45861</v>
       </c>
       <c r="B1457">
-        <v>748.35050000000001</v>
+        <v>748.35829999999999</v>
       </c>
       <c r="C1457">
         <v>3075</v>
@@ -29750,7 +29757,7 @@
         <v>143.8321</v>
       </c>
       <c r="F1457">
-        <v>79.651799999999994</v>
+        <v>79.659599999999998</v>
       </c>
     </row>
     <row r="1458" spans="1:6" x14ac:dyDescent="0.25">
@@ -29758,7 +29765,7 @@
         <v>45862</v>
       </c>
       <c r="B1458">
-        <v>751.14070000000004</v>
+        <v>751.14700000000005</v>
       </c>
       <c r="C1458">
         <v>3075</v>
@@ -29770,7 +29777,7 @@
         <v>144.21610000000001</v>
       </c>
       <c r="F1458">
-        <v>80.119900000000001</v>
+        <v>80.126099999999994</v>
       </c>
     </row>
     <row r="1459" spans="1:6" x14ac:dyDescent="0.25">
@@ -29778,7 +29785,7 @@
         <v>45863</v>
       </c>
       <c r="B1459">
-        <v>754.31640000000004</v>
+        <v>754.32240000000002</v>
       </c>
       <c r="C1459">
         <v>3123</v>
@@ -29790,7 +29797,7 @@
         <v>144.81639999999999</v>
       </c>
       <c r="F1459">
-        <v>80.617999999999995</v>
+        <v>80.623999999999995</v>
       </c>
     </row>
     <row r="1460" spans="1:6" x14ac:dyDescent="0.25">
@@ -29798,7 +29805,7 @@
         <v>45866</v>
       </c>
       <c r="B1460">
-        <v>766.94910000000004</v>
+        <v>766.95860000000005</v>
       </c>
       <c r="C1460">
         <v>3123</v>
@@ -29810,7 +29817,7 @@
         <v>147.88030000000001</v>
       </c>
       <c r="F1460">
-        <v>82.192300000000003</v>
+        <v>82.201800000000006</v>
       </c>
     </row>
     <row r="1461" spans="1:6" x14ac:dyDescent="0.25">
@@ -29818,7 +29825,7 @@
         <v>45867</v>
       </c>
       <c r="B1461">
-        <v>771.0367</v>
+        <v>771.04459999999995</v>
       </c>
       <c r="C1461">
         <v>3123</v>
@@ -29830,7 +29837,7 @@
         <v>148.80629999999999</v>
       </c>
       <c r="F1461">
-        <v>82.695300000000003</v>
+        <v>82.703299999999999</v>
       </c>
     </row>
     <row r="1462" spans="1:6" x14ac:dyDescent="0.25">
@@ -29838,7 +29845,7 @@
         <v>45868</v>
       </c>
       <c r="B1462">
-        <v>774.92340000000002</v>
+        <v>774.92909999999995</v>
       </c>
       <c r="C1462">
         <v>3123</v>
@@ -29850,7 +29857,7 @@
         <v>149.7362</v>
       </c>
       <c r="F1462">
-        <v>83.131500000000003</v>
+        <v>83.137299999999996</v>
       </c>
     </row>
     <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
@@ -29878,7 +29885,7 @@
         <v>45870</v>
       </c>
       <c r="B1464">
-        <v>781.83960000000002</v>
+        <v>781.84749999999997</v>
       </c>
       <c r="C1464">
         <v>3130</v>
@@ -29890,7 +29897,7 @@
         <v>151.13319999999999</v>
       </c>
       <c r="F1464">
-        <v>83.945300000000003</v>
+        <v>83.953299999999999</v>
       </c>
     </row>
     <row r="1465" spans="1:6" x14ac:dyDescent="0.25">
@@ -29898,7 +29905,7 @@
         <v>45873</v>
       </c>
       <c r="B1465">
-        <v>794.49419999999998</v>
+        <v>794.50030000000004</v>
       </c>
       <c r="C1465">
         <v>3130</v>
@@ -29910,7 +29917,7 @@
         <v>154.71690000000001</v>
       </c>
       <c r="F1465">
-        <v>85.112499999999997</v>
+        <v>85.118600000000001</v>
       </c>
     </row>
     <row r="1466" spans="1:6" x14ac:dyDescent="0.25">
@@ -29918,7 +29925,7 @@
         <v>45874</v>
       </c>
       <c r="B1466">
-        <v>798.28729999999996</v>
+        <v>798.29290000000003</v>
       </c>
       <c r="C1466">
         <v>3130</v>
@@ -29930,7 +29937,7 @@
         <v>155.80699999999999</v>
       </c>
       <c r="F1466">
-        <v>85.433899999999994</v>
+        <v>85.439599999999999</v>
       </c>
     </row>
     <row r="1467" spans="1:6" x14ac:dyDescent="0.25">
@@ -29958,7 +29965,7 @@
         <v>45876</v>
       </c>
       <c r="B1468">
-        <v>805.52599999999995</v>
+        <v>805.5317</v>
       </c>
       <c r="C1468">
         <v>3130</v>
@@ -29970,7 +29977,7 @@
         <v>157.53829999999999</v>
       </c>
       <c r="F1468">
-        <v>86.035200000000003</v>
+        <v>86.040800000000004</v>
       </c>
     </row>
     <row r="1469" spans="1:6" x14ac:dyDescent="0.25">
@@ -29978,7 +29985,7 @@
         <v>45877</v>
       </c>
       <c r="B1469">
-        <v>809.06349999999998</v>
+        <v>809.06820000000005</v>
       </c>
       <c r="C1469">
         <v>3186</v>
@@ -29990,7 +29997,7 @@
         <v>158.38079999999999</v>
       </c>
       <c r="F1469">
-        <v>86.459299999999999</v>
+        <v>86.463899999999995</v>
       </c>
     </row>
     <row r="1470" spans="1:6" x14ac:dyDescent="0.25">
@@ -29998,7 +30005,7 @@
         <v>45880</v>
       </c>
       <c r="B1470">
-        <v>820.99189999999999</v>
+        <v>820.99689999999998</v>
       </c>
       <c r="C1470">
         <v>3186</v>
@@ -30010,7 +30017,7 @@
         <v>161.44370000000001</v>
       </c>
       <c r="F1470">
-        <v>87.696299999999994</v>
+        <v>87.701300000000003</v>
       </c>
     </row>
     <row r="1471" spans="1:6" x14ac:dyDescent="0.25">
@@ -30018,7 +30025,7 @@
         <v>45881</v>
       </c>
       <c r="B1471">
-        <v>823.96029999999996</v>
+        <v>823.96429999999998</v>
       </c>
       <c r="C1471">
         <v>3186</v>
@@ -30030,7 +30037,7 @@
         <v>162.1422</v>
       </c>
       <c r="F1471">
-        <v>87.944100000000006</v>
+        <v>87.947999999999993</v>
       </c>
     </row>
     <row r="1472" spans="1:6" x14ac:dyDescent="0.25">
@@ -30038,7 +30045,7 @@
         <v>45882</v>
       </c>
       <c r="B1472">
-        <v>826.71749999999997</v>
+        <v>826.71659999999997</v>
       </c>
       <c r="C1472">
         <v>3186</v>
@@ -30050,7 +30057,7 @@
         <v>162.76599999999999</v>
       </c>
       <c r="F1472">
-        <v>88.168599999999998</v>
+        <v>88.172399999999996</v>
       </c>
     </row>
     <row r="1473" spans="1:6" x14ac:dyDescent="0.25">
@@ -30058,7 +30065,7 @@
         <v>45883</v>
       </c>
       <c r="B1473">
-        <v>829.09180000000003</v>
+        <v>829.56420000000003</v>
       </c>
       <c r="C1473">
         <v>3186</v>
@@ -30070,7 +30077,7 @@
         <v>163.50049999999999</v>
       </c>
       <c r="F1473">
-        <v>88.382400000000004</v>
+        <v>88.386600000000001</v>
       </c>
     </row>
     <row r="1474" spans="1:6" x14ac:dyDescent="0.25">
@@ -30078,7 +30085,7 @@
         <v>45884</v>
       </c>
       <c r="B1474">
-        <v>832.59289999999999</v>
+        <v>833.08640000000003</v>
       </c>
       <c r="C1474">
         <v>3186</v>
@@ -30087,10 +30094,10 @@
         <v>4.5640000000000001</v>
       </c>
       <c r="E1474">
-        <v>164.47280000000001</v>
+        <v>164.4725</v>
       </c>
       <c r="F1474">
-        <v>88.7393</v>
+        <v>88.743799999999993</v>
       </c>
     </row>
     <row r="1475" spans="1:6" x14ac:dyDescent="0.25">
@@ -30098,19 +30105,79 @@
         <v>45887</v>
       </c>
       <c r="B1475">
-        <v>836.16790000000003</v>
+        <v>843.35519999999997</v>
       </c>
       <c r="C1475">
         <v>3186</v>
       </c>
       <c r="D1475">
-        <v>4.5944000000000003</v>
+        <v>4.6619000000000002</v>
       </c>
       <c r="E1475">
-        <v>165.3801</v>
+        <v>166.96340000000001</v>
       </c>
       <c r="F1475">
-        <v>89.182400000000001</v>
+        <v>89.887799999999999</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1476" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B1476">
+        <v>846.63679999999999</v>
+      </c>
+      <c r="C1476">
+        <v>3186</v>
+      </c>
+      <c r="D1476">
+        <v>4.6943999999999999</v>
+      </c>
+      <c r="E1476">
+        <v>167.7062</v>
+      </c>
+      <c r="F1476">
+        <v>90.209199999999996</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1477" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B1477">
+        <v>846.63679999999999</v>
+      </c>
+      <c r="C1477">
+        <v>3186</v>
+      </c>
+      <c r="D1477">
+        <v>4.6943999999999999</v>
+      </c>
+      <c r="E1477">
+        <v>167.7062</v>
+      </c>
+      <c r="F1477">
+        <v>90.209199999999996</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1478" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B1478">
+        <v>846.63679999999999</v>
+      </c>
+      <c r="C1478">
+        <v>3186</v>
+      </c>
+      <c r="D1478">
+        <v>4.6943999999999999</v>
+      </c>
+      <c r="E1478">
+        <v>167.7062</v>
+      </c>
+      <c r="F1478">
+        <v>90.209199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -30120,10 +30187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:C1213"/>
+  <dimension ref="A1:C1216"/>
   <sheetViews>
-    <sheetView topLeftCell="A1201" workbookViewId="0">
-      <selection activeCell="K1188" sqref="K1188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30177,14 +30244,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1207")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1210")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1207")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1210")</f>
         <v>19.074999999999999</v>
       </c>
     </row>
@@ -43448,10 +43515,43 @@
         <v>45887</v>
       </c>
       <c r="B1213">
-        <v>70.5</v>
+        <v>71.44</v>
       </c>
       <c r="C1213">
-        <v>30.7</v>
+        <v>30.975000000000001</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1214" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B1214">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="C1214">
+        <v>31.074999999999999</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1215" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B1215">
+        <v>70.91</v>
+      </c>
+      <c r="C1215">
+        <v>32.15</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1216" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B1216">
+        <v>71.11</v>
+      </c>
+      <c r="C1216">
+        <v>32.299999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7272A2B5-F0B9-4BF2-934B-5E6F8F9AE645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1EEC6-E0E6-4F20-B697-ED58052ECC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -253,8 +253,6 @@
         <stp>BDH|5247090130891257875</stp>
         <tr r="F7" s="1"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -630,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1478"/>
+  <dimension ref="A1:F1480"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,26 +735,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1472")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1474")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1472")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1474")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1472")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1474")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1472")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1474")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1472")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1474")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -29425,7 +29423,7 @@
         <v>45839</v>
       </c>
       <c r="B1441">
-        <v>670.73889999999994</v>
+        <v>670.73879999999997</v>
       </c>
       <c r="C1441">
         <v>2953</v>
@@ -29445,7 +29443,7 @@
         <v>45840</v>
       </c>
       <c r="B1442">
-        <v>674.06629999999996</v>
+        <v>674.06619999999998</v>
       </c>
       <c r="C1442">
         <v>2953</v>
@@ -29465,7 +29463,7 @@
         <v>45841</v>
       </c>
       <c r="B1443">
-        <v>676.92259999999999</v>
+        <v>676.92250000000001</v>
       </c>
       <c r="C1443">
         <v>2953</v>
@@ -29505,7 +29503,7 @@
         <v>45845</v>
       </c>
       <c r="B1445">
-        <v>691.09569999999997</v>
+        <v>691.09559999999999</v>
       </c>
       <c r="C1445">
         <v>3006</v>
@@ -29525,7 +29523,7 @@
         <v>45846</v>
       </c>
       <c r="B1446">
-        <v>698.37249999999995</v>
+        <v>698.41570000000002</v>
       </c>
       <c r="C1446">
         <v>3006</v>
@@ -29534,7 +29532,7 @@
         <v>2.7158000000000002</v>
       </c>
       <c r="E1446">
-        <v>135.4502</v>
+        <v>135.49350000000001</v>
       </c>
       <c r="F1446">
         <v>72.421199999999999</v>
@@ -29545,7 +29543,7 @@
         <v>45847</v>
       </c>
       <c r="B1447">
-        <v>698.08150000000001</v>
+        <v>698.12990000000002</v>
       </c>
       <c r="C1447">
         <v>3006</v>
@@ -29554,7 +29552,7 @@
         <v>2.7158000000000002</v>
       </c>
       <c r="E1447">
-        <v>132.3784</v>
+        <v>132.42679999999999</v>
       </c>
       <c r="F1447">
         <v>72.895700000000005</v>
@@ -29565,7 +29563,7 @@
         <v>45848</v>
       </c>
       <c r="B1448">
-        <v>702.00329999999997</v>
+        <v>702.05679999999995</v>
       </c>
       <c r="C1448">
         <v>3006</v>
@@ -29574,7 +29572,7 @@
         <v>2.7158000000000002</v>
       </c>
       <c r="E1448">
-        <v>133.46770000000001</v>
+        <v>133.52119999999999</v>
       </c>
       <c r="F1448">
         <v>73.415400000000005</v>
@@ -29585,7 +29583,7 @@
         <v>45849</v>
       </c>
       <c r="B1449">
-        <v>705.63430000000005</v>
+        <v>705.69290000000001</v>
       </c>
       <c r="C1449">
         <v>3052</v>
@@ -29594,7 +29592,7 @@
         <v>2.7158000000000002</v>
       </c>
       <c r="E1449">
-        <v>134.36760000000001</v>
+        <v>134.42619999999999</v>
       </c>
       <c r="F1449">
         <v>73.947000000000003</v>
@@ -29605,7 +29603,7 @@
         <v>45852</v>
       </c>
       <c r="B1450">
-        <v>717.97069999999997</v>
+        <v>718.03949999999998</v>
       </c>
       <c r="C1450">
         <v>3052</v>
@@ -29614,7 +29612,7 @@
         <v>2.8188</v>
       </c>
       <c r="E1450">
-        <v>137.4263</v>
+        <v>137.49510000000001</v>
       </c>
       <c r="F1450">
         <v>75.338999999999999</v>
@@ -29625,7 +29623,7 @@
         <v>45853</v>
       </c>
       <c r="B1451">
-        <v>721.22460000000001</v>
+        <v>721.26400000000001</v>
       </c>
       <c r="C1451">
         <v>3052</v>
@@ -29634,7 +29632,7 @@
         <v>2.8462000000000001</v>
       </c>
       <c r="E1451">
-        <v>138.0179</v>
+        <v>138.0573</v>
       </c>
       <c r="F1451">
         <v>75.840900000000005</v>
@@ -29645,7 +29643,7 @@
         <v>45854</v>
       </c>
       <c r="B1452">
-        <v>724.36519999999996</v>
+        <v>724.41049999999996</v>
       </c>
       <c r="C1452">
         <v>3052</v>
@@ -29654,7 +29652,7 @@
         <v>2.8092000000000001</v>
       </c>
       <c r="E1452">
-        <v>138.648</v>
+        <v>138.6934</v>
       </c>
       <c r="F1452">
         <v>76.295500000000004</v>
@@ -29665,7 +29663,7 @@
         <v>45855</v>
       </c>
       <c r="B1453">
-        <v>727.02480000000003</v>
+        <v>727.07590000000005</v>
       </c>
       <c r="C1453">
         <v>3052</v>
@@ -29674,7 +29672,7 @@
         <v>2.8287</v>
       </c>
       <c r="E1453">
-        <v>139.12729999999999</v>
+        <v>139.17850000000001</v>
       </c>
       <c r="F1453">
         <v>76.6952</v>
@@ -29685,7 +29683,7 @@
         <v>45856</v>
       </c>
       <c r="B1454">
-        <v>730.27959999999996</v>
+        <v>730.33669999999995</v>
       </c>
       <c r="C1454">
         <v>3075</v>
@@ -29694,7 +29692,7 @@
         <v>2.8736999999999999</v>
       </c>
       <c r="E1454">
-        <v>139.7706</v>
+        <v>139.82769999999999</v>
       </c>
       <c r="F1454">
         <v>77.143000000000001</v>
@@ -29705,7 +29703,7 @@
         <v>45859</v>
       </c>
       <c r="B1455">
-        <v>741.78049999999996</v>
+        <v>741.85519999999997</v>
       </c>
       <c r="C1455">
         <v>3075</v>
@@ -29714,7 +29712,7 @@
         <v>3.0085999999999999</v>
       </c>
       <c r="E1455">
-        <v>142.58779999999999</v>
+        <v>142.6626</v>
       </c>
       <c r="F1455">
         <v>78.614400000000003</v>
@@ -29725,7 +29723,7 @@
         <v>45860</v>
       </c>
       <c r="B1456">
-        <v>745.12049999999999</v>
+        <v>745.20119999999997</v>
       </c>
       <c r="C1456">
         <v>3075</v>
@@ -29734,7 +29732,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="E1456">
-        <v>143.21270000000001</v>
+        <v>143.29339999999999</v>
       </c>
       <c r="F1456">
         <v>79.220200000000006</v>
@@ -29745,7 +29743,7 @@
         <v>45861</v>
       </c>
       <c r="B1457">
-        <v>748.35829999999999</v>
+        <v>748.44479999999999</v>
       </c>
       <c r="C1457">
         <v>3075</v>
@@ -29754,7 +29752,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="E1457">
-        <v>143.8321</v>
+        <v>143.9186</v>
       </c>
       <c r="F1457">
         <v>79.659599999999998</v>
@@ -29765,7 +29763,7 @@
         <v>45862</v>
       </c>
       <c r="B1458">
-        <v>751.14700000000005</v>
+        <v>751.23940000000005</v>
       </c>
       <c r="C1458">
         <v>3075</v>
@@ -29774,7 +29772,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="E1458">
-        <v>144.21610000000001</v>
+        <v>144.30850000000001</v>
       </c>
       <c r="F1458">
         <v>80.126099999999994</v>
@@ -29785,7 +29783,7 @@
         <v>45863</v>
       </c>
       <c r="B1459">
-        <v>754.32240000000002</v>
+        <v>754.42070000000001</v>
       </c>
       <c r="C1459">
         <v>3123</v>
@@ -29794,7 +29792,7 @@
         <v>3.1030000000000002</v>
       </c>
       <c r="E1459">
-        <v>144.81639999999999</v>
+        <v>144.91470000000001</v>
       </c>
       <c r="F1459">
         <v>80.623999999999995</v>
@@ -29805,7 +29803,7 @@
         <v>45866</v>
       </c>
       <c r="B1460">
-        <v>766.95860000000005</v>
+        <v>767.07460000000003</v>
       </c>
       <c r="C1460">
         <v>3123</v>
@@ -29814,7 +29812,7 @@
         <v>3.2551999999999999</v>
       </c>
       <c r="E1460">
-        <v>147.88030000000001</v>
+        <v>147.99629999999999</v>
       </c>
       <c r="F1460">
         <v>82.201800000000006</v>
@@ -29825,7 +29823,7 @@
         <v>45867</v>
       </c>
       <c r="B1461">
-        <v>771.04459999999995</v>
+        <v>771.06380000000001</v>
       </c>
       <c r="C1461">
         <v>3123</v>
@@ -29834,7 +29832,7 @@
         <v>3.3001999999999998</v>
       </c>
       <c r="E1461">
-        <v>148.80629999999999</v>
+        <v>148.82550000000001</v>
       </c>
       <c r="F1461">
         <v>82.703299999999999</v>
@@ -29845,7 +29843,7 @@
         <v>45868</v>
       </c>
       <c r="B1462">
-        <v>774.92909999999995</v>
+        <v>774.95420000000001</v>
       </c>
       <c r="C1462">
         <v>3123</v>
@@ -29854,7 +29852,7 @@
         <v>3.3599000000000001</v>
       </c>
       <c r="E1462">
-        <v>149.7362</v>
+        <v>149.76130000000001</v>
       </c>
       <c r="F1462">
         <v>83.137299999999996</v>
@@ -29865,7 +29863,7 @@
         <v>45869</v>
       </c>
       <c r="B1463">
-        <v>778.27629999999999</v>
+        <v>778.30719999999997</v>
       </c>
       <c r="C1463">
         <v>3123</v>
@@ -29874,7 +29872,7 @@
         <v>3.4049</v>
       </c>
       <c r="E1463">
-        <v>150.3691</v>
+        <v>150.40010000000001</v>
       </c>
       <c r="F1463">
         <v>83.5411</v>
@@ -29885,7 +29883,7 @@
         <v>45870</v>
       </c>
       <c r="B1464">
-        <v>781.84749999999997</v>
+        <v>781.87879999999996</v>
       </c>
       <c r="C1464">
         <v>3130</v>
@@ -29894,7 +29892,7 @@
         <v>3.4657</v>
       </c>
       <c r="E1464">
-        <v>151.13319999999999</v>
+        <v>151.16419999999999</v>
       </c>
       <c r="F1464">
         <v>83.953299999999999</v>
@@ -29905,7 +29903,7 @@
         <v>45873</v>
       </c>
       <c r="B1465">
-        <v>794.50030000000004</v>
+        <v>794.5086</v>
       </c>
       <c r="C1465">
         <v>3130</v>
@@ -29914,7 +29912,7 @@
         <v>3.6278000000000001</v>
       </c>
       <c r="E1465">
-        <v>154.71690000000001</v>
+        <v>154.7243</v>
       </c>
       <c r="F1465">
         <v>85.118600000000001</v>
@@ -29925,7 +29923,7 @@
         <v>45874</v>
       </c>
       <c r="B1466">
-        <v>798.29290000000003</v>
+        <v>798.29399999999998</v>
       </c>
       <c r="C1466">
         <v>3130</v>
@@ -29945,7 +29943,7 @@
         <v>45875</v>
       </c>
       <c r="B1467">
-        <v>801.97329999999999</v>
+        <v>801.97429999999997</v>
       </c>
       <c r="C1467">
         <v>3130</v>
@@ -29965,7 +29963,7 @@
         <v>45876</v>
       </c>
       <c r="B1468">
-        <v>805.5317</v>
+        <v>805.53240000000005</v>
       </c>
       <c r="C1468">
         <v>3130</v>
@@ -29985,7 +29983,7 @@
         <v>45877</v>
       </c>
       <c r="B1469">
-        <v>809.06820000000005</v>
+        <v>809.06859999999995</v>
       </c>
       <c r="C1469">
         <v>3186</v>
@@ -30005,7 +30003,7 @@
         <v>45880</v>
       </c>
       <c r="B1470">
-        <v>820.99689999999998</v>
+        <v>820.9973</v>
       </c>
       <c r="C1470">
         <v>3186</v>
@@ -30025,7 +30023,7 @@
         <v>45881</v>
       </c>
       <c r="B1471">
-        <v>823.96429999999998</v>
+        <v>823.96479999999997</v>
       </c>
       <c r="C1471">
         <v>3186</v>
@@ -30045,7 +30043,7 @@
         <v>45882</v>
       </c>
       <c r="B1472">
-        <v>826.71659999999997</v>
+        <v>826.7174</v>
       </c>
       <c r="C1472">
         <v>3186</v>
@@ -30065,7 +30063,7 @@
         <v>45883</v>
       </c>
       <c r="B1473">
-        <v>829.56420000000003</v>
+        <v>829.5652</v>
       </c>
       <c r="C1473">
         <v>3186</v>
@@ -30085,10 +30083,10 @@
         <v>45884</v>
       </c>
       <c r="B1474">
-        <v>833.08640000000003</v>
+        <v>833.08759999999995</v>
       </c>
       <c r="C1474">
-        <v>3186</v>
+        <v>3199</v>
       </c>
       <c r="D1474">
         <v>4.5640000000000001</v>
@@ -30105,10 +30103,10 @@
         <v>45887</v>
       </c>
       <c r="B1475">
-        <v>843.35519999999997</v>
+        <v>843.79480000000001</v>
       </c>
       <c r="C1475">
-        <v>3186</v>
+        <v>3199</v>
       </c>
       <c r="D1475">
         <v>4.6619000000000002</v>
@@ -30125,10 +30123,10 @@
         <v>45888</v>
       </c>
       <c r="B1476">
-        <v>846.63679999999999</v>
+        <v>847.05309999999997</v>
       </c>
       <c r="C1476">
-        <v>3186</v>
+        <v>3199</v>
       </c>
       <c r="D1476">
         <v>4.6943999999999999</v>
@@ -30145,19 +30143,19 @@
         <v>45889</v>
       </c>
       <c r="B1477">
-        <v>846.63679999999999</v>
+        <v>850.11040000000003</v>
       </c>
       <c r="C1477">
-        <v>3186</v>
+        <v>3199</v>
       </c>
       <c r="D1477">
-        <v>4.6943999999999999</v>
+        <v>4.6357999999999997</v>
       </c>
       <c r="E1477">
-        <v>167.7062</v>
+        <v>168.32490000000001</v>
       </c>
       <c r="F1477">
-        <v>90.209199999999996</v>
+        <v>90.554900000000004</v>
       </c>
     </row>
     <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
@@ -30165,19 +30163,59 @@
         <v>45890</v>
       </c>
       <c r="B1478">
-        <v>846.63679999999999</v>
+        <v>852.89869999999996</v>
       </c>
       <c r="C1478">
-        <v>3186</v>
+        <v>3199</v>
       </c>
       <c r="D1478">
-        <v>4.6943999999999999</v>
+        <v>4.5976999999999997</v>
       </c>
       <c r="E1478">
-        <v>167.7062</v>
+        <v>169.0257</v>
       </c>
       <c r="F1478">
-        <v>90.209199999999996</v>
+        <v>90.866</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1479" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B1479">
+        <v>856.00340000000006</v>
+      </c>
+      <c r="C1479">
+        <v>3199</v>
+      </c>
+      <c r="D1479">
+        <v>4.5976999999999997</v>
+      </c>
+      <c r="E1479">
+        <v>169.64400000000001</v>
+      </c>
+      <c r="F1479">
+        <v>91.185000000000002</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1480" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B1480">
+        <v>859.29110000000003</v>
+      </c>
+      <c r="C1480">
+        <v>3199</v>
+      </c>
+      <c r="D1480">
+        <v>4.5976999999999997</v>
+      </c>
+      <c r="E1480">
+        <v>170.55459999999999</v>
+      </c>
+      <c r="F1480">
+        <v>91.536699999999996</v>
       </c>
     </row>
   </sheetData>
@@ -30187,10 +30225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:C1216"/>
+  <dimension ref="A1:C1218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A1182" workbookViewId="0">
+      <selection activeCell="O1214" sqref="O1214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30244,14 +30282,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1210")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1212")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1210")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1212")</f>
         <v>19.074999999999999</v>
       </c>
     </row>
@@ -43548,10 +43586,32 @@
         <v>45890</v>
       </c>
       <c r="B1216">
-        <v>71.11</v>
+        <v>72.23</v>
       </c>
       <c r="C1216">
-        <v>32.299999999999997</v>
+        <v>33.244999999999997</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1217" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B1217">
+        <v>72.13</v>
+      </c>
+      <c r="C1217">
+        <v>33.424999999999997</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1218" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B1218">
+        <v>71.650000000000006</v>
+      </c>
+      <c r="C1218">
+        <v>33.36</v>
       </c>
     </row>
   </sheetData>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1EEC6-E0E6-4F20-B697-ED58052ECC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586737C4-40BA-4E33-9C20-85CF9734E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
@@ -189,56 +189,56 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="2"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="2"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C3</stp>
@@ -257,8 +257,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDH|5828156284080324637</stp>
+        <tr r="A7" s="3"/>
         <tr r="A7" s="2"/>
-        <tr r="A7" s="3"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -266,8 +266,6 @@
         <stp>BDH|1378406766753827437</stp>
         <tr r="C7" s="3"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -630,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
   <dimension ref="A1:F1480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A1444" workbookViewId="0">
+      <selection activeCell="B1480" sqref="B1480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586737C4-40BA-4E33-9C20-85CF9734E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE7DA9A-529C-4500-A80D-50E4C87805CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -189,56 +189,56 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="2"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="2"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C3</stp>
@@ -257,8 +257,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDH|5828156284080324637</stp>
+        <tr r="A7" s="2"/>
         <tr r="A7" s="3"/>
-        <tr r="A7" s="2"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -266,6 +266,8 @@
         <stp>BDH|1378406766753827437</stp>
         <tr r="C7" s="3"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -626,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1480"/>
+  <dimension ref="A1:F1485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1444" workbookViewId="0">
-      <selection activeCell="B1480" sqref="B1480"/>
+    <sheetView topLeftCell="A1452" workbookViewId="0">
+      <selection activeCell="E1486" sqref="E1486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,26 +735,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1474")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1479")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1474")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1479")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1474")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1479")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1474")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1479")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1474")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1479")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -29421,7 +29423,7 @@
         <v>45839</v>
       </c>
       <c r="B1441">
-        <v>670.73879999999997</v>
+        <v>670.73490000000004</v>
       </c>
       <c r="C1441">
         <v>2953</v>
@@ -29461,7 +29463,7 @@
         <v>45841</v>
       </c>
       <c r="B1443">
-        <v>676.92250000000001</v>
+        <v>676.92409999999995</v>
       </c>
       <c r="C1443">
         <v>2953</v>
@@ -29473,7 +29475,7 @@
         <v>127.5356</v>
       </c>
       <c r="F1443">
-        <v>70.244299999999996</v>
+        <v>70.244200000000006</v>
       </c>
     </row>
     <row r="1444" spans="1:6" x14ac:dyDescent="0.25">
@@ -29481,7 +29483,7 @@
         <v>45842</v>
       </c>
       <c r="B1444">
-        <v>680.13390000000004</v>
+        <v>680.14030000000002</v>
       </c>
       <c r="C1444">
         <v>3006</v>
@@ -29521,7 +29523,7 @@
         <v>45846</v>
       </c>
       <c r="B1446">
-        <v>698.41570000000002</v>
+        <v>698.41560000000004</v>
       </c>
       <c r="C1446">
         <v>3006</v>
@@ -29541,7 +29543,7 @@
         <v>45847</v>
       </c>
       <c r="B1447">
-        <v>698.12990000000002</v>
+        <v>698.12969999999996</v>
       </c>
       <c r="C1447">
         <v>3006</v>
@@ -29553,7 +29555,7 @@
         <v>132.42679999999999</v>
       </c>
       <c r="F1447">
-        <v>72.895700000000005</v>
+        <v>72.895600000000002</v>
       </c>
     </row>
     <row r="1448" spans="1:6" x14ac:dyDescent="0.25">
@@ -29561,7 +29563,7 @@
         <v>45848</v>
       </c>
       <c r="B1448">
-        <v>702.05679999999995</v>
+        <v>702.05600000000004</v>
       </c>
       <c r="C1448">
         <v>3006</v>
@@ -29581,7 +29583,7 @@
         <v>45849</v>
       </c>
       <c r="B1449">
-        <v>705.69290000000001</v>
+        <v>705.69280000000003</v>
       </c>
       <c r="C1449">
         <v>3052</v>
@@ -29593,7 +29595,7 @@
         <v>134.42619999999999</v>
       </c>
       <c r="F1449">
-        <v>73.947000000000003</v>
+        <v>73.946899999999999</v>
       </c>
     </row>
     <row r="1450" spans="1:6" x14ac:dyDescent="0.25">
@@ -29601,7 +29603,7 @@
         <v>45852</v>
       </c>
       <c r="B1450">
-        <v>718.03949999999998</v>
+        <v>718.0394</v>
       </c>
       <c r="C1450">
         <v>3052</v>
@@ -29613,7 +29615,7 @@
         <v>137.49510000000001</v>
       </c>
       <c r="F1450">
-        <v>75.338999999999999</v>
+        <v>75.338899999999995</v>
       </c>
     </row>
     <row r="1451" spans="1:6" x14ac:dyDescent="0.25">
@@ -29621,7 +29623,7 @@
         <v>45853</v>
       </c>
       <c r="B1451">
-        <v>721.26400000000001</v>
+        <v>721.26390000000004</v>
       </c>
       <c r="C1451">
         <v>3052</v>
@@ -29633,7 +29635,7 @@
         <v>138.0573</v>
       </c>
       <c r="F1451">
-        <v>75.840900000000005</v>
+        <v>75.840699999999998</v>
       </c>
     </row>
     <row r="1452" spans="1:6" x14ac:dyDescent="0.25">
@@ -29641,7 +29643,7 @@
         <v>45854</v>
       </c>
       <c r="B1452">
-        <v>724.41049999999996</v>
+        <v>724.41020000000003</v>
       </c>
       <c r="C1452">
         <v>3052</v>
@@ -29653,7 +29655,7 @@
         <v>138.6934</v>
       </c>
       <c r="F1452">
-        <v>76.295500000000004</v>
+        <v>76.295299999999997</v>
       </c>
     </row>
     <row r="1453" spans="1:6" x14ac:dyDescent="0.25">
@@ -29661,7 +29663,7 @@
         <v>45855</v>
       </c>
       <c r="B1453">
-        <v>727.07590000000005</v>
+        <v>727.07569999999998</v>
       </c>
       <c r="C1453">
         <v>3052</v>
@@ -29673,7 +29675,7 @@
         <v>139.17850000000001</v>
       </c>
       <c r="F1453">
-        <v>76.6952</v>
+        <v>76.694999999999993</v>
       </c>
     </row>
     <row r="1454" spans="1:6" x14ac:dyDescent="0.25">
@@ -29681,7 +29683,7 @@
         <v>45856</v>
       </c>
       <c r="B1454">
-        <v>730.33669999999995</v>
+        <v>730.33640000000003</v>
       </c>
       <c r="C1454">
         <v>3075</v>
@@ -29693,7 +29695,7 @@
         <v>139.82769999999999</v>
       </c>
       <c r="F1454">
-        <v>77.143000000000001</v>
+        <v>77.142700000000005</v>
       </c>
     </row>
     <row r="1455" spans="1:6" x14ac:dyDescent="0.25">
@@ -29701,7 +29703,7 @@
         <v>45859</v>
       </c>
       <c r="B1455">
-        <v>741.85519999999997</v>
+        <v>741.85500000000002</v>
       </c>
       <c r="C1455">
         <v>3075</v>
@@ -29713,7 +29715,7 @@
         <v>142.6626</v>
       </c>
       <c r="F1455">
-        <v>78.614400000000003</v>
+        <v>78.614199999999997</v>
       </c>
     </row>
     <row r="1456" spans="1:6" x14ac:dyDescent="0.25">
@@ -29721,7 +29723,7 @@
         <v>45860</v>
       </c>
       <c r="B1456">
-        <v>745.20119999999997</v>
+        <v>745.20100000000002</v>
       </c>
       <c r="C1456">
         <v>3075</v>
@@ -29733,7 +29735,7 @@
         <v>143.29339999999999</v>
       </c>
       <c r="F1456">
-        <v>79.220200000000006</v>
+        <v>79.219899999999996</v>
       </c>
     </row>
     <row r="1457" spans="1:6" x14ac:dyDescent="0.25">
@@ -29741,7 +29743,7 @@
         <v>45861</v>
       </c>
       <c r="B1457">
-        <v>748.44479999999999</v>
+        <v>748.44460000000004</v>
       </c>
       <c r="C1457">
         <v>3075</v>
@@ -29753,7 +29755,7 @@
         <v>143.9186</v>
       </c>
       <c r="F1457">
-        <v>79.659599999999998</v>
+        <v>79.659300000000002</v>
       </c>
     </row>
     <row r="1458" spans="1:6" x14ac:dyDescent="0.25">
@@ -29761,7 +29763,7 @@
         <v>45862</v>
       </c>
       <c r="B1458">
-        <v>751.23940000000005</v>
+        <v>751.23919999999998</v>
       </c>
       <c r="C1458">
         <v>3075</v>
@@ -29773,7 +29775,7 @@
         <v>144.30850000000001</v>
       </c>
       <c r="F1458">
-        <v>80.126099999999994</v>
+        <v>80.125900000000001</v>
       </c>
     </row>
     <row r="1459" spans="1:6" x14ac:dyDescent="0.25">
@@ -29781,7 +29783,7 @@
         <v>45863</v>
       </c>
       <c r="B1459">
-        <v>754.42070000000001</v>
+        <v>754.42049999999995</v>
       </c>
       <c r="C1459">
         <v>3123</v>
@@ -29793,7 +29795,7 @@
         <v>144.91470000000001</v>
       </c>
       <c r="F1459">
-        <v>80.623999999999995</v>
+        <v>80.623800000000003</v>
       </c>
     </row>
     <row r="1460" spans="1:6" x14ac:dyDescent="0.25">
@@ -29801,7 +29803,7 @@
         <v>45866</v>
       </c>
       <c r="B1460">
-        <v>767.07460000000003</v>
+        <v>767.07439999999997</v>
       </c>
       <c r="C1460">
         <v>3123</v>
@@ -29813,7 +29815,7 @@
         <v>147.99629999999999</v>
       </c>
       <c r="F1460">
-        <v>82.201800000000006</v>
+        <v>82.201599999999999</v>
       </c>
     </row>
     <row r="1461" spans="1:6" x14ac:dyDescent="0.25">
@@ -29821,7 +29823,7 @@
         <v>45867</v>
       </c>
       <c r="B1461">
-        <v>771.06380000000001</v>
+        <v>771.06349999999998</v>
       </c>
       <c r="C1461">
         <v>3123</v>
@@ -29833,7 +29835,7 @@
         <v>148.82550000000001</v>
       </c>
       <c r="F1461">
-        <v>82.703299999999999</v>
+        <v>82.703000000000003</v>
       </c>
     </row>
     <row r="1462" spans="1:6" x14ac:dyDescent="0.25">
@@ -29841,7 +29843,7 @@
         <v>45868</v>
       </c>
       <c r="B1462">
-        <v>774.95420000000001</v>
+        <v>774.95540000000005</v>
       </c>
       <c r="C1462">
         <v>3123</v>
@@ -29853,7 +29855,7 @@
         <v>149.76130000000001</v>
       </c>
       <c r="F1462">
-        <v>83.137299999999996</v>
+        <v>83.137</v>
       </c>
     </row>
     <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
@@ -29861,7 +29863,7 @@
         <v>45869</v>
       </c>
       <c r="B1463">
-        <v>778.30719999999997</v>
+        <v>778.30690000000004</v>
       </c>
       <c r="C1463">
         <v>3123</v>
@@ -29873,7 +29875,7 @@
         <v>150.40010000000001</v>
       </c>
       <c r="F1463">
-        <v>83.5411</v>
+        <v>83.540800000000004</v>
       </c>
     </row>
     <row r="1464" spans="1:6" x14ac:dyDescent="0.25">
@@ -29881,7 +29883,7 @@
         <v>45870</v>
       </c>
       <c r="B1464">
-        <v>781.87879999999996</v>
+        <v>781.87829999999997</v>
       </c>
       <c r="C1464">
         <v>3130</v>
@@ -29893,7 +29895,7 @@
         <v>151.16419999999999</v>
       </c>
       <c r="F1464">
-        <v>83.953299999999999</v>
+        <v>83.953000000000003</v>
       </c>
     </row>
     <row r="1465" spans="1:6" x14ac:dyDescent="0.25">
@@ -29901,7 +29903,7 @@
         <v>45873</v>
       </c>
       <c r="B1465">
-        <v>794.5086</v>
+        <v>794.50609999999995</v>
       </c>
       <c r="C1465">
         <v>3130</v>
@@ -29913,7 +29915,7 @@
         <v>154.7243</v>
       </c>
       <c r="F1465">
-        <v>85.118600000000001</v>
+        <v>85.118300000000005</v>
       </c>
     </row>
     <row r="1466" spans="1:6" x14ac:dyDescent="0.25">
@@ -29921,7 +29923,7 @@
         <v>45874</v>
       </c>
       <c r="B1466">
-        <v>798.29399999999998</v>
+        <v>798.3</v>
       </c>
       <c r="C1466">
         <v>3130</v>
@@ -29930,10 +29932,10 @@
         <v>3.8363</v>
       </c>
       <c r="E1466">
-        <v>155.80699999999999</v>
+        <v>155.81450000000001</v>
       </c>
       <c r="F1466">
-        <v>85.439599999999999</v>
+        <v>85.439300000000003</v>
       </c>
     </row>
     <row r="1467" spans="1:6" x14ac:dyDescent="0.25">
@@ -29941,7 +29943,7 @@
         <v>45875</v>
       </c>
       <c r="B1467">
-        <v>801.97429999999997</v>
+        <v>801.98199999999997</v>
       </c>
       <c r="C1467">
         <v>3130</v>
@@ -29953,7 +29955,7 @@
         <v>156.71440000000001</v>
       </c>
       <c r="F1467">
-        <v>85.705600000000004</v>
+        <v>85.705399999999997</v>
       </c>
     </row>
     <row r="1468" spans="1:6" x14ac:dyDescent="0.25">
@@ -29961,7 +29963,7 @@
         <v>45876</v>
       </c>
       <c r="B1468">
-        <v>805.53240000000005</v>
+        <v>805.53049999999996</v>
       </c>
       <c r="C1468">
         <v>3130</v>
@@ -29973,7 +29975,7 @@
         <v>157.53829999999999</v>
       </c>
       <c r="F1468">
-        <v>86.040800000000004</v>
+        <v>86.040599999999998</v>
       </c>
     </row>
     <row r="1469" spans="1:6" x14ac:dyDescent="0.25">
@@ -29981,7 +29983,7 @@
         <v>45877</v>
       </c>
       <c r="B1469">
-        <v>809.06859999999995</v>
+        <v>809.06359999999995</v>
       </c>
       <c r="C1469">
         <v>3186</v>
@@ -29993,7 +29995,7 @@
         <v>158.38079999999999</v>
       </c>
       <c r="F1469">
-        <v>86.463899999999995</v>
+        <v>86.463700000000003</v>
       </c>
     </row>
     <row r="1470" spans="1:6" x14ac:dyDescent="0.25">
@@ -30001,7 +30003,7 @@
         <v>45880</v>
       </c>
       <c r="B1470">
-        <v>820.9973</v>
+        <v>820.99459999999999</v>
       </c>
       <c r="C1470">
         <v>3186</v>
@@ -30013,7 +30015,7 @@
         <v>161.44370000000001</v>
       </c>
       <c r="F1470">
-        <v>87.701300000000003</v>
+        <v>87.700999999999993</v>
       </c>
     </row>
     <row r="1471" spans="1:6" x14ac:dyDescent="0.25">
@@ -30021,7 +30023,7 @@
         <v>45881</v>
       </c>
       <c r="B1471">
-        <v>823.96479999999997</v>
+        <v>823.96190000000001</v>
       </c>
       <c r="C1471">
         <v>3186</v>
@@ -30033,7 +30035,7 @@
         <v>162.1422</v>
       </c>
       <c r="F1471">
-        <v>87.947999999999993</v>
+        <v>87.947800000000001</v>
       </c>
     </row>
     <row r="1472" spans="1:6" x14ac:dyDescent="0.25">
@@ -30041,7 +30043,7 @@
         <v>45882</v>
       </c>
       <c r="B1472">
-        <v>826.7174</v>
+        <v>826.69640000000004</v>
       </c>
       <c r="C1472">
         <v>3186</v>
@@ -30053,7 +30055,7 @@
         <v>162.76599999999999</v>
       </c>
       <c r="F1472">
-        <v>88.172399999999996</v>
+        <v>88.1721</v>
       </c>
     </row>
     <row r="1473" spans="1:6" x14ac:dyDescent="0.25">
@@ -30061,7 +30063,7 @@
         <v>45883</v>
       </c>
       <c r="B1473">
-        <v>829.5652</v>
+        <v>829.56510000000003</v>
       </c>
       <c r="C1473">
         <v>3186</v>
@@ -30070,10 +30072,10 @@
         <v>4.5212000000000003</v>
       </c>
       <c r="E1473">
-        <v>163.50049999999999</v>
+        <v>163.50370000000001</v>
       </c>
       <c r="F1473">
-        <v>88.386600000000001</v>
+        <v>88.386300000000006</v>
       </c>
     </row>
     <row r="1474" spans="1:6" x14ac:dyDescent="0.25">
@@ -30081,7 +30083,7 @@
         <v>45884</v>
       </c>
       <c r="B1474">
-        <v>833.08759999999995</v>
+        <v>833.09529999999995</v>
       </c>
       <c r="C1474">
         <v>3199</v>
@@ -30090,10 +30092,10 @@
         <v>4.5640000000000001</v>
       </c>
       <c r="E1474">
-        <v>164.4725</v>
+        <v>164.47649999999999</v>
       </c>
       <c r="F1474">
-        <v>88.743799999999993</v>
+        <v>88.743499999999997</v>
       </c>
     </row>
     <row r="1475" spans="1:6" x14ac:dyDescent="0.25">
@@ -30101,7 +30103,7 @@
         <v>45887</v>
       </c>
       <c r="B1475">
-        <v>843.79480000000001</v>
+        <v>843.78020000000004</v>
       </c>
       <c r="C1475">
         <v>3199</v>
@@ -30110,10 +30112,10 @@
         <v>4.6619000000000002</v>
       </c>
       <c r="E1475">
-        <v>166.96340000000001</v>
+        <v>166.9674</v>
       </c>
       <c r="F1475">
-        <v>89.887799999999999</v>
+        <v>89.889600000000002</v>
       </c>
     </row>
     <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
@@ -30121,7 +30123,7 @@
         <v>45888</v>
       </c>
       <c r="B1476">
-        <v>847.05309999999997</v>
+        <v>847.05650000000003</v>
       </c>
       <c r="C1476">
         <v>3199</v>
@@ -30130,10 +30132,10 @@
         <v>4.6943999999999999</v>
       </c>
       <c r="E1476">
-        <v>167.7062</v>
+        <v>167.71019999999999</v>
       </c>
       <c r="F1476">
-        <v>90.209199999999996</v>
+        <v>90.212800000000001</v>
       </c>
     </row>
     <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
@@ -30141,7 +30143,7 @@
         <v>45889</v>
       </c>
       <c r="B1477">
-        <v>850.11040000000003</v>
+        <v>850.11310000000003</v>
       </c>
       <c r="C1477">
         <v>3199</v>
@@ -30150,10 +30152,10 @@
         <v>4.6357999999999997</v>
       </c>
       <c r="E1477">
-        <v>168.32490000000001</v>
+        <v>168.3289</v>
       </c>
       <c r="F1477">
-        <v>90.554900000000004</v>
+        <v>90.557900000000004</v>
       </c>
     </row>
     <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
@@ -30161,7 +30163,7 @@
         <v>45890</v>
       </c>
       <c r="B1478">
-        <v>852.89869999999996</v>
+        <v>853.303</v>
       </c>
       <c r="C1478">
         <v>3199</v>
@@ -30170,10 +30172,10 @@
         <v>4.5976999999999997</v>
       </c>
       <c r="E1478">
-        <v>169.0257</v>
+        <v>169.02969999999999</v>
       </c>
       <c r="F1478">
-        <v>90.866</v>
+        <v>90.868600000000001</v>
       </c>
     </row>
     <row r="1479" spans="1:6" x14ac:dyDescent="0.25">
@@ -30181,19 +30183,19 @@
         <v>45891</v>
       </c>
       <c r="B1479">
-        <v>856.00340000000006</v>
+        <v>856.33600000000001</v>
       </c>
       <c r="C1479">
-        <v>3199</v>
+        <v>3217</v>
       </c>
       <c r="D1479">
         <v>4.5976999999999997</v>
       </c>
       <c r="E1479">
-        <v>169.64400000000001</v>
+        <v>169.64869999999999</v>
       </c>
       <c r="F1479">
-        <v>91.185000000000002</v>
+        <v>91.187600000000003</v>
       </c>
     </row>
     <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
@@ -30201,19 +30203,119 @@
         <v>45894</v>
       </c>
       <c r="B1480">
-        <v>859.29110000000003</v>
+        <v>866.45180000000005</v>
       </c>
       <c r="C1480">
-        <v>3199</v>
+        <v>3217</v>
       </c>
       <c r="D1480">
         <v>4.5976999999999997</v>
       </c>
       <c r="E1480">
-        <v>170.55459999999999</v>
+        <v>172.08600000000001</v>
       </c>
       <c r="F1480">
-        <v>91.536699999999996</v>
+        <v>92.1828</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1481" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B1481">
+        <v>868.93370000000004</v>
+      </c>
+      <c r="C1481">
+        <v>3217</v>
+      </c>
+      <c r="D1481">
+        <v>4.5391000000000004</v>
+      </c>
+      <c r="E1481">
+        <v>172.7132</v>
+      </c>
+      <c r="F1481">
+        <v>92.437200000000004</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1482" s="2">
+        <v>45896</v>
+      </c>
+      <c r="B1482">
+        <v>871.07849999999996</v>
+      </c>
+      <c r="C1482">
+        <v>3217</v>
+      </c>
+      <c r="D1482">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E1482">
+        <v>173.1534</v>
+      </c>
+      <c r="F1482">
+        <v>92.578599999999994</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1483" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B1483">
+        <v>873.15650000000005</v>
+      </c>
+      <c r="C1483">
+        <v>3217</v>
+      </c>
+      <c r="D1483">
+        <v>4.4184999999999999</v>
+      </c>
+      <c r="E1483">
+        <v>173.87960000000001</v>
+      </c>
+      <c r="F1483">
+        <v>92.630899999999997</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1484" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B1484">
+        <v>875.61059999999998</v>
+      </c>
+      <c r="C1484">
+        <v>3217</v>
+      </c>
+      <c r="D1484">
+        <v>4.3440000000000003</v>
+      </c>
+      <c r="E1484">
+        <v>174.7004</v>
+      </c>
+      <c r="F1484">
+        <v>92.893100000000004</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1485" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B1485">
+        <v>878.42179999999996</v>
+      </c>
+      <c r="C1485">
+        <v>3217</v>
+      </c>
+      <c r="D1485">
+        <v>4.3411</v>
+      </c>
+      <c r="E1485">
+        <v>175.67420000000001</v>
+      </c>
+      <c r="F1485">
+        <v>93.205299999999994</v>
       </c>
     </row>
   </sheetData>
@@ -30223,10 +30325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:C1218"/>
+  <dimension ref="A1:C1223"/>
   <sheetViews>
-    <sheetView topLeftCell="A1182" workbookViewId="0">
-      <selection activeCell="O1214" sqref="O1214"/>
+    <sheetView tabSelected="1" topLeftCell="A1188" workbookViewId="0">
+      <selection activeCell="K1222" sqref="K1222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30280,14 +30382,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1212")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1217")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1212")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1217")</f>
         <v>19.074999999999999</v>
       </c>
     </row>
@@ -43606,10 +43708,65 @@
         <v>45894</v>
       </c>
       <c r="B1218">
-        <v>71.650000000000006</v>
+        <v>71.81</v>
       </c>
       <c r="C1218">
-        <v>33.36</v>
+        <v>33.674999999999997</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1219" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B1219">
+        <v>72.36</v>
+      </c>
+      <c r="C1219">
+        <v>33.274999999999999</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1220" s="2">
+        <v>45896</v>
+      </c>
+      <c r="B1220">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="C1220">
+        <v>33.375</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1221" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B1221">
+        <v>71.33</v>
+      </c>
+      <c r="C1221">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1222" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B1222">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C1222">
+        <v>31.324999999999999</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1223" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B1223">
+        <v>73.52</v>
+      </c>
+      <c r="C1223">
+        <v>32.049999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE7DA9A-529C-4500-A80D-50E4C87805CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA5461-CDD7-486A-A7D2-939844725A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -189,56 +189,56 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="2"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="2"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C3</stp>
@@ -257,8 +257,8 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDH|5828156284080324637</stp>
+        <tr r="A7" s="3"/>
         <tr r="A7" s="2"/>
-        <tr r="A7" s="3"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -266,8 +266,6 @@
         <stp>BDH|1378406766753827437</stp>
         <tr r="C7" s="3"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -630,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
   <dimension ref="A1:F1485"/>
   <sheetViews>
-    <sheetView topLeftCell="A1452" workbookViewId="0">
-      <selection activeCell="E1486" sqref="E1486"/>
+    <sheetView tabSelected="1" topLeftCell="A1452" workbookViewId="0">
+      <selection activeCell="F1487" sqref="F1487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30327,8 +30325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
   <dimension ref="A1:C1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1188" workbookViewId="0">
-      <selection activeCell="K1222" sqref="K1222"/>
+    <sheetView topLeftCell="A1187" workbookViewId="0">
+      <selection activeCell="B1223" sqref="B1223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA5461-CDD7-486A-A7D2-939844725A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF85B51-6268-4403-AA93-0007DACFAB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -189,56 +189,56 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="2"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Prices!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="2"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C3</stp>
@@ -253,12 +253,14 @@
         <stp>BDH|5247090130891257875</stp>
         <tr r="F7" s="1"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
         <stp>BDH|5828156284080324637</stp>
+        <tr r="A7" s="2"/>
         <tr r="A7" s="3"/>
-        <tr r="A7" s="2"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -266,6 +268,8 @@
         <stp>BDH|1378406766753827437</stp>
         <tr r="C7" s="3"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -626,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1485"/>
+  <dimension ref="A1:F1490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1452" workbookViewId="0">
-      <selection activeCell="F1487" sqref="F1487"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,26 +737,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1479")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1484")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1479")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1484")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1479")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1484")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1479")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1484")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1479")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1484")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -29961,7 +29965,7 @@
         <v>45876</v>
       </c>
       <c r="B1468">
-        <v>805.53049999999996</v>
+        <v>805.53060000000005</v>
       </c>
       <c r="C1468">
         <v>3130</v>
@@ -30021,7 +30025,7 @@
         <v>45881</v>
       </c>
       <c r="B1471">
-        <v>823.96190000000001</v>
+        <v>823.96199999999999</v>
       </c>
       <c r="C1471">
         <v>3186</v>
@@ -30141,7 +30145,7 @@
         <v>45889</v>
       </c>
       <c r="B1477">
-        <v>850.11310000000003</v>
+        <v>850.11289999999997</v>
       </c>
       <c r="C1477">
         <v>3199</v>
@@ -30161,7 +30165,7 @@
         <v>45890</v>
       </c>
       <c r="B1478">
-        <v>853.303</v>
+        <v>853.30290000000002</v>
       </c>
       <c r="C1478">
         <v>3199</v>
@@ -30181,7 +30185,7 @@
         <v>45891</v>
       </c>
       <c r="B1479">
-        <v>856.33600000000001</v>
+        <v>856.33590000000004</v>
       </c>
       <c r="C1479">
         <v>3217</v>
@@ -30201,7 +30205,7 @@
         <v>45894</v>
       </c>
       <c r="B1480">
-        <v>866.45180000000005</v>
+        <v>866.45169999999996</v>
       </c>
       <c r="C1480">
         <v>3217</v>
@@ -30221,7 +30225,7 @@
         <v>45895</v>
       </c>
       <c r="B1481">
-        <v>868.93370000000004</v>
+        <v>868.93359999999996</v>
       </c>
       <c r="C1481">
         <v>3217</v>
@@ -30250,7 +30254,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="E1482">
-        <v>173.1534</v>
+        <v>173.15360000000001</v>
       </c>
       <c r="F1482">
         <v>92.578599999999994</v>
@@ -30261,7 +30265,7 @@
         <v>45897</v>
       </c>
       <c r="B1483">
-        <v>873.15650000000005</v>
+        <v>873.34820000000002</v>
       </c>
       <c r="C1483">
         <v>3217</v>
@@ -30270,7 +30274,7 @@
         <v>4.4184999999999999</v>
       </c>
       <c r="E1483">
-        <v>173.87960000000001</v>
+        <v>173.87970000000001</v>
       </c>
       <c r="F1483">
         <v>92.630899999999997</v>
@@ -30281,16 +30285,16 @@
         <v>45898</v>
       </c>
       <c r="B1484">
-        <v>875.61059999999998</v>
+        <v>876.00919999999996</v>
       </c>
       <c r="C1484">
-        <v>3217</v>
+        <v>3272</v>
       </c>
       <c r="D1484">
         <v>4.3440000000000003</v>
       </c>
       <c r="E1484">
-        <v>174.7004</v>
+        <v>174.7071</v>
       </c>
       <c r="F1484">
         <v>92.893100000000004</v>
@@ -30301,19 +30305,119 @@
         <v>45901</v>
       </c>
       <c r="B1485">
-        <v>878.42179999999996</v>
+        <v>887.90629999999999</v>
       </c>
       <c r="C1485">
-        <v>3217</v>
+        <v>3272</v>
       </c>
       <c r="D1485">
-        <v>4.3411</v>
+        <v>4.2721999999999998</v>
       </c>
       <c r="E1485">
-        <v>175.67420000000001</v>
+        <v>180.38749999999999</v>
       </c>
       <c r="F1485">
-        <v>93.205299999999994</v>
+        <v>93.966700000000003</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1486" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B1486">
+        <v>890.23950000000002</v>
+      </c>
+      <c r="C1486">
+        <v>3272</v>
+      </c>
+      <c r="D1486">
+        <v>4.3010000000000002</v>
+      </c>
+      <c r="E1486">
+        <v>180.6114</v>
+      </c>
+      <c r="F1486">
+        <v>94.391199999999998</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1487" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B1487">
+        <v>892.88229999999999</v>
+      </c>
+      <c r="C1487">
+        <v>3272</v>
+      </c>
+      <c r="D1487">
+        <v>4.3342000000000001</v>
+      </c>
+      <c r="E1487">
+        <v>181.23089999999999</v>
+      </c>
+      <c r="F1487">
+        <v>94.906300000000002</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1488" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B1488">
+        <v>895.2577</v>
+      </c>
+      <c r="C1488">
+        <v>3272</v>
+      </c>
+      <c r="D1488">
+        <v>4.3672000000000004</v>
+      </c>
+      <c r="E1488">
+        <v>182.08340000000001</v>
+      </c>
+      <c r="F1488">
+        <v>95.226100000000002</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1489" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B1489">
+        <v>898.22670000000005</v>
+      </c>
+      <c r="C1489">
+        <v>3272</v>
+      </c>
+      <c r="D1489">
+        <v>4.4001000000000001</v>
+      </c>
+      <c r="E1489">
+        <v>183.25729999999999</v>
+      </c>
+      <c r="F1489">
+        <v>95.635400000000004</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1490" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B1490">
+        <v>901.25890000000004</v>
+      </c>
+      <c r="C1490">
+        <v>3272</v>
+      </c>
+      <c r="D1490">
+        <v>4.4001000000000001</v>
+      </c>
+      <c r="E1490">
+        <v>184.14609999999999</v>
+      </c>
+      <c r="F1490">
+        <v>96.018000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -30323,10 +30427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:C1223"/>
+  <dimension ref="A1:C1228"/>
   <sheetViews>
-    <sheetView topLeftCell="A1187" workbookViewId="0">
-      <selection activeCell="B1223" sqref="B1223"/>
+    <sheetView tabSelected="1" topLeftCell="A1192" workbookViewId="0">
+      <selection activeCell="C1228" sqref="C1228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30380,14 +30484,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1217")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1222")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1217")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1222")</f>
         <v>19.074999999999999</v>
       </c>
     </row>
@@ -43761,10 +43865,65 @@
         <v>45901</v>
       </c>
       <c r="B1223">
-        <v>73.52</v>
+        <v>73.56</v>
       </c>
       <c r="C1223">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1224" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B1224">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="C1224">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1225" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B1225">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="C1225">
+        <v>32.24</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1226" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B1226">
+        <v>75.03</v>
+      </c>
+      <c r="C1226">
+        <v>32.549999999999997</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1227" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B1227">
+        <v>75.64</v>
+      </c>
+      <c r="C1227">
         <v>32.049999999999997</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1228" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B1228">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="C1228">
+        <v>32.549999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF85B51-6268-4403-AA93-0007DACFAB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFDAFAF-2935-424B-9351-CA758F28CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -253,14 +253,12 @@
         <stp>BDH|5247090130891257875</stp>
         <tr r="F7" s="1"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
         <stp>BDH|5828156284080324637</stp>
+        <tr r="A7" s="3"/>
         <tr r="A7" s="2"/>
-        <tr r="A7" s="3"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
@@ -284,24 +282,24 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Correl EUA vs stocks!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="3"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Correl EUA vs stocks!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="3"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Correl EUA vs stocks!R5C2</stp>
@@ -630,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1490"/>
+  <dimension ref="A1:F1496"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,26 +735,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1484")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1490")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1484")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1490")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1484")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1490")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1484")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1490")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1484")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1490")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -30245,7 +30243,7 @@
         <v>45896</v>
       </c>
       <c r="B1482">
-        <v>871.07849999999996</v>
+        <v>871.07989999999995</v>
       </c>
       <c r="C1482">
         <v>3217</v>
@@ -30257,7 +30255,7 @@
         <v>173.15360000000001</v>
       </c>
       <c r="F1482">
-        <v>92.578599999999994</v>
+        <v>92.580100000000002</v>
       </c>
     </row>
     <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
@@ -30265,7 +30263,7 @@
         <v>45897</v>
       </c>
       <c r="B1483">
-        <v>873.34820000000002</v>
+        <v>873.34969999999998</v>
       </c>
       <c r="C1483">
         <v>3217</v>
@@ -30277,7 +30275,7 @@
         <v>173.87970000000001</v>
       </c>
       <c r="F1483">
-        <v>92.630899999999997</v>
+        <v>92.632400000000004</v>
       </c>
     </row>
     <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
@@ -30285,7 +30283,7 @@
         <v>45898</v>
       </c>
       <c r="B1484">
-        <v>876.00919999999996</v>
+        <v>876.01239999999996</v>
       </c>
       <c r="C1484">
         <v>3272</v>
@@ -30297,7 +30295,7 @@
         <v>174.7071</v>
       </c>
       <c r="F1484">
-        <v>92.893100000000004</v>
+        <v>92.896299999999997</v>
       </c>
     </row>
     <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
@@ -30305,7 +30303,7 @@
         <v>45901</v>
       </c>
       <c r="B1485">
-        <v>887.90629999999999</v>
+        <v>887.91030000000001</v>
       </c>
       <c r="C1485">
         <v>3272</v>
@@ -30317,7 +30315,7 @@
         <v>180.38749999999999</v>
       </c>
       <c r="F1485">
-        <v>93.966700000000003</v>
+        <v>93.970699999999994</v>
       </c>
     </row>
     <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
@@ -30325,7 +30323,7 @@
         <v>45902</v>
       </c>
       <c r="B1486">
-        <v>890.23950000000002</v>
+        <v>890.24390000000005</v>
       </c>
       <c r="C1486">
         <v>3272</v>
@@ -30337,7 +30335,7 @@
         <v>180.6114</v>
       </c>
       <c r="F1486">
-        <v>94.391199999999998</v>
+        <v>94.395399999999995</v>
       </c>
     </row>
     <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
@@ -30345,7 +30343,7 @@
         <v>45903</v>
       </c>
       <c r="B1487">
-        <v>892.88229999999999</v>
+        <v>892.88689999999997</v>
       </c>
       <c r="C1487">
         <v>3272</v>
@@ -30357,7 +30355,7 @@
         <v>181.23089999999999</v>
       </c>
       <c r="F1487">
-        <v>94.906300000000002</v>
+        <v>94.910600000000002</v>
       </c>
     </row>
     <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
@@ -30365,7 +30363,7 @@
         <v>45904</v>
       </c>
       <c r="B1488">
-        <v>895.2577</v>
+        <v>895.52449999999999</v>
       </c>
       <c r="C1488">
         <v>3272</v>
@@ -30374,10 +30372,10 @@
         <v>4.3672000000000004</v>
       </c>
       <c r="E1488">
-        <v>182.08340000000001</v>
+        <v>182.08349999999999</v>
       </c>
       <c r="F1488">
-        <v>95.226100000000002</v>
+        <v>95.227500000000006</v>
       </c>
     </row>
     <row r="1489" spans="1:6" x14ac:dyDescent="0.25">
@@ -30385,19 +30383,19 @@
         <v>45905</v>
       </c>
       <c r="B1489">
-        <v>898.22670000000005</v>
+        <v>897.92110000000002</v>
       </c>
       <c r="C1489">
-        <v>3272</v>
+        <v>3343</v>
       </c>
       <c r="D1489">
         <v>4.4001000000000001</v>
       </c>
       <c r="E1489">
-        <v>183.25729999999999</v>
+        <v>182.6952</v>
       </c>
       <c r="F1489">
-        <v>95.635400000000004</v>
+        <v>95.636799999999994</v>
       </c>
     </row>
     <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
@@ -30405,19 +30403,139 @@
         <v>45908</v>
       </c>
       <c r="B1490">
-        <v>901.25890000000004</v>
+        <v>905.81590000000006</v>
       </c>
       <c r="C1490">
-        <v>3272</v>
+        <v>3343</v>
       </c>
       <c r="D1490">
-        <v>4.4001000000000001</v>
+        <v>4.4862000000000002</v>
       </c>
       <c r="E1490">
-        <v>184.14609999999999</v>
+        <v>184.91290000000001</v>
       </c>
       <c r="F1490">
-        <v>96.018000000000001</v>
+        <v>96.661500000000004</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1491" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B1491">
+        <v>907.26440000000002</v>
+      </c>
+      <c r="C1491">
+        <v>3343</v>
+      </c>
+      <c r="D1491">
+        <v>4.4915000000000003</v>
+      </c>
+      <c r="E1491">
+        <v>185.1627</v>
+      </c>
+      <c r="F1491">
+        <v>96.7774</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1492" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B1492">
+        <v>908.57939999999996</v>
+      </c>
+      <c r="C1492">
+        <v>3343</v>
+      </c>
+      <c r="D1492">
+        <v>4.5114999999999998</v>
+      </c>
+      <c r="E1492">
+        <v>185.5926</v>
+      </c>
+      <c r="F1492">
+        <v>96.907499999999999</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1493" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B1493">
+        <v>910.06889999999999</v>
+      </c>
+      <c r="C1493">
+        <v>3343</v>
+      </c>
+      <c r="D1493">
+        <v>4.5378999999999996</v>
+      </c>
+      <c r="E1493">
+        <v>186.05250000000001</v>
+      </c>
+      <c r="F1493">
+        <v>97.103300000000004</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1494" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B1494">
+        <v>912.03139999999996</v>
+      </c>
+      <c r="C1494">
+        <v>3343</v>
+      </c>
+      <c r="D1494">
+        <v>4.5643000000000002</v>
+      </c>
+      <c r="E1494">
+        <v>186.6696</v>
+      </c>
+      <c r="F1494">
+        <v>97.2547</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1495" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B1495">
+        <v>917.32460000000003</v>
+      </c>
+      <c r="C1495">
+        <v>3343</v>
+      </c>
+      <c r="D1495">
+        <v>4.6043000000000003</v>
+      </c>
+      <c r="E1495">
+        <v>188.05420000000001</v>
+      </c>
+      <c r="F1495">
+        <v>98.122</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1496" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B1496">
+        <v>917.32460000000003</v>
+      </c>
+      <c r="C1496">
+        <v>3343</v>
+      </c>
+      <c r="D1496">
+        <v>4.6043000000000003</v>
+      </c>
+      <c r="E1496">
+        <v>188.05420000000001</v>
+      </c>
+      <c r="F1496">
+        <v>98.122</v>
       </c>
     </row>
   </sheetData>
@@ -30427,10 +30545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:C1228"/>
+  <dimension ref="A1:C1234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1192" workbookViewId="0">
-      <selection activeCell="C1228" sqref="C1228"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30484,14 +30602,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1222")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1228")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1222")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1228")</f>
         <v>19.074999999999999</v>
       </c>
     </row>
@@ -43920,10 +44038,76 @@
         <v>45908</v>
       </c>
       <c r="B1228">
-        <v>75.489999999999995</v>
+        <v>76.77</v>
       </c>
       <c r="C1228">
-        <v>32.549999999999997</v>
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1229" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B1229">
+        <v>76.5</v>
+      </c>
+      <c r="C1229">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1230" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B1230">
+        <v>76.7</v>
+      </c>
+      <c r="C1230">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1231" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B1231">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="C1231">
+        <v>32.35</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1232" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B1232">
+        <v>75.37</v>
+      </c>
+      <c r="C1232">
+        <v>32.674999999999997</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1233" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B1233">
+        <v>76.36</v>
+      </c>
+      <c r="C1233">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1234" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B1234">
+        <v>76.27</v>
+      </c>
+      <c r="C1234">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>
@@ -43936,7 +44120,7 @@
   <dimension ref="A1:D1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H26" sqref="H26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44001,18 +44185,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1184")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1228")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1184")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1228")</f>
         <v>822.56110000000001</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1184")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1228")</f>
         <v>557.74</v>
       </c>
     </row>
@@ -59676,7 +59860,7 @@
         <v>65.12</v>
       </c>
       <c r="C1126">
-        <v>409.5607</v>
+        <v>409.56240000000003</v>
       </c>
       <c r="D1126">
         <v>545.74</v>
@@ -59690,7 +59874,7 @@
         <v>65.12</v>
       </c>
       <c r="C1127">
-        <v>411.80950000000001</v>
+        <v>411.81119999999999</v>
       </c>
       <c r="D1127">
         <v>545.74</v>
@@ -59704,7 +59888,7 @@
         <v>65.12</v>
       </c>
       <c r="C1128">
-        <v>421.66370000000001</v>
+        <v>421.66879999999998</v>
       </c>
       <c r="D1128">
         <v>545.74</v>
@@ -59718,7 +59902,7 @@
         <v>63.66</v>
       </c>
       <c r="C1129">
-        <v>424.07569999999998</v>
+        <v>424.08170000000001</v>
       </c>
       <c r="D1129">
         <v>551.62</v>
@@ -59732,7 +59916,7 @@
         <v>66.150000000000006</v>
       </c>
       <c r="C1130">
-        <v>426.30220000000003</v>
+        <v>426.3098</v>
       </c>
       <c r="D1130">
         <v>544.27</v>
@@ -59746,7 +59930,7 @@
         <v>65.58</v>
       </c>
       <c r="C1131">
-        <v>428.36500000000001</v>
+        <v>428.37360000000001</v>
       </c>
       <c r="D1131">
         <v>547.09</v>
@@ -59760,7 +59944,7 @@
         <v>65.69</v>
       </c>
       <c r="C1132">
-        <v>430.85309999999998</v>
+        <v>430.86279999999999</v>
       </c>
       <c r="D1132">
         <v>549.34</v>
@@ -59774,7 +59958,7 @@
         <v>64.58</v>
       </c>
       <c r="C1133">
-        <v>440.10649999999998</v>
+        <v>440.11750000000001</v>
       </c>
       <c r="D1133">
         <v>552.87</v>
@@ -59788,7 +59972,7 @@
         <v>64.11</v>
       </c>
       <c r="C1134">
-        <v>443.0523</v>
+        <v>443.06630000000001</v>
       </c>
       <c r="D1134">
         <v>559.98</v>
@@ -59802,7 +59986,7 @@
         <v>65.819999999999993</v>
       </c>
       <c r="C1135">
-        <v>446.47800000000001</v>
+        <v>446.49369999999999</v>
       </c>
       <c r="D1135">
         <v>564.25</v>
@@ -59816,7 +60000,7 @@
         <v>66.28</v>
       </c>
       <c r="C1136">
-        <v>451.05889999999999</v>
+        <v>451.07470000000001</v>
       </c>
       <c r="D1136">
         <v>565.04</v>
@@ -59830,7 +60014,7 @@
         <v>68</v>
       </c>
       <c r="C1137">
-        <v>455.55619999999999</v>
+        <v>455.57459999999998</v>
       </c>
       <c r="D1137">
         <v>560.14</v>
@@ -59844,7 +60028,7 @@
         <v>66.73</v>
       </c>
       <c r="C1138">
-        <v>468.03570000000002</v>
+        <v>468.05799999999999</v>
       </c>
       <c r="D1138">
         <v>563.83000000000004</v>
@@ -59858,7 +60042,7 @@
         <v>68.489999999999995</v>
       </c>
       <c r="C1139">
-        <v>470.54169999999999</v>
+        <v>470.56549999999999</v>
       </c>
       <c r="D1139">
         <v>565.32000000000005</v>
@@ -59872,7 +60056,7 @@
         <v>70.27</v>
       </c>
       <c r="C1140">
-        <v>472.84039999999999</v>
+        <v>472.86439999999999</v>
       </c>
       <c r="D1140">
         <v>566.33000000000004</v>
@@ -60110,7 +60294,7 @@
         <v>69.61</v>
       </c>
       <c r="C1157">
-        <v>542.30179999999996</v>
+        <v>542.30200000000002</v>
       </c>
       <c r="D1157">
         <v>582.80999999999995</v>
@@ -60124,7 +60308,7 @@
         <v>70.099999999999994</v>
       </c>
       <c r="C1158">
-        <v>558.1413</v>
+        <v>558.14120000000003</v>
       </c>
       <c r="D1158">
         <v>583.41</v>
@@ -60166,7 +60350,7 @@
         <v>71.91</v>
       </c>
       <c r="C1161">
-        <v>568.90740000000005</v>
+        <v>568.90689999999995</v>
       </c>
       <c r="D1161">
         <v>580.02</v>
@@ -60180,7 +60364,7 @@
         <v>72.67</v>
       </c>
       <c r="C1162">
-        <v>573.02679999999998</v>
+        <v>573.02480000000003</v>
       </c>
       <c r="D1162">
         <v>581.44000000000005</v>
@@ -60194,7 +60378,7 @@
         <v>73.41</v>
       </c>
       <c r="C1163">
-        <v>587.34019999999998</v>
+        <v>587.33709999999996</v>
       </c>
       <c r="D1163">
         <v>579.54999999999995</v>
@@ -60208,7 +60392,7 @@
         <v>71.86</v>
       </c>
       <c r="C1164">
-        <v>591.07039999999995</v>
+        <v>591.06859999999995</v>
       </c>
       <c r="D1164">
         <v>583.54</v>
@@ -60222,7 +60406,7 @@
         <v>73.53</v>
       </c>
       <c r="C1165">
-        <v>594.71510000000001</v>
+        <v>594.70979999999997</v>
       </c>
       <c r="D1165">
         <v>585.28</v>
@@ -60236,7 +60420,7 @@
         <v>74.56</v>
       </c>
       <c r="C1166">
-        <v>598.19539999999995</v>
+        <v>598.197</v>
       </c>
       <c r="D1166">
         <v>588.85</v>
@@ -60250,7 +60434,7 @@
         <v>75.09</v>
       </c>
       <c r="C1167">
-        <v>601.23199999999997</v>
+        <v>601.23360000000002</v>
       </c>
       <c r="D1167">
         <v>586.16999999999996</v>
@@ -60264,7 +60448,7 @@
         <v>74.489999999999995</v>
       </c>
       <c r="C1168">
-        <v>613.17269999999996</v>
+        <v>613.17420000000004</v>
       </c>
       <c r="D1168">
         <v>587.09</v>
@@ -60278,7 +60462,7 @@
         <v>73.790000000000006</v>
       </c>
       <c r="C1169">
-        <v>616.73009999999999</v>
+        <v>616.73159999999996</v>
       </c>
       <c r="D1169">
         <v>586.6</v>
@@ -60292,7 +60476,7 @@
         <v>73.760000000000005</v>
       </c>
       <c r="C1170">
-        <v>620.50660000000005</v>
+        <v>620.50819999999999</v>
       </c>
       <c r="D1170">
         <v>585.33000000000004</v>
@@ -60306,7 +60490,7 @@
         <v>71.91</v>
       </c>
       <c r="C1171">
-        <v>624.35450000000003</v>
+        <v>624.35599999999999</v>
       </c>
       <c r="D1171">
         <v>586.88</v>
@@ -60320,7 +60504,7 @@
         <v>72.14</v>
       </c>
       <c r="C1172">
-        <v>628.21780000000001</v>
+        <v>628.22400000000005</v>
       </c>
       <c r="D1172">
         <v>589.52</v>
@@ -60334,7 +60518,7 @@
         <v>72.430000000000007</v>
       </c>
       <c r="C1173">
-        <v>641.81209999999999</v>
+        <v>641.75149999999996</v>
       </c>
       <c r="D1173">
         <v>595.47</v>
@@ -60348,7 +60532,7 @@
         <v>72.709999999999994</v>
       </c>
       <c r="C1174">
-        <v>645.34460000000001</v>
+        <v>645.34619999999995</v>
       </c>
       <c r="D1174">
         <v>597.64</v>
@@ -60362,7 +60546,7 @@
         <v>70.31</v>
       </c>
       <c r="C1175">
-        <v>648.32280000000003</v>
+        <v>648.32439999999997</v>
       </c>
       <c r="D1175">
         <v>589.63</v>
@@ -60376,7 +60560,7 @@
         <v>69.59</v>
       </c>
       <c r="C1176">
-        <v>651.19230000000005</v>
+        <v>651.19389999999999</v>
       </c>
       <c r="D1176">
         <v>591.57000000000005</v>
@@ -60390,7 +60574,7 @@
         <v>70.150000000000006</v>
       </c>
       <c r="C1177">
-        <v>655.18119999999999</v>
+        <v>655.18280000000004</v>
       </c>
       <c r="D1177">
         <v>590.29999999999995</v>
@@ -60404,7 +60588,7 @@
         <v>68.19</v>
       </c>
       <c r="C1178">
-        <v>667.93299999999999</v>
+        <v>667.93449999999996</v>
       </c>
       <c r="D1178">
         <v>589.73</v>
@@ -60418,7 +60602,7 @@
         <v>70.209999999999994</v>
       </c>
       <c r="C1179">
-        <v>670.72990000000004</v>
+        <v>670.73490000000004</v>
       </c>
       <c r="D1179">
         <v>595.84</v>
@@ -60432,7 +60616,7 @@
         <v>71.53</v>
       </c>
       <c r="C1180">
-        <v>674.0498</v>
+        <v>674.06619999999998</v>
       </c>
       <c r="D1180">
         <v>591.85</v>
@@ -60446,7 +60630,7 @@
         <v>71.680000000000007</v>
       </c>
       <c r="C1181">
-        <v>676.89869999999996</v>
+        <v>676.92409999999995</v>
       </c>
       <c r="D1181">
         <v>595.02</v>
@@ -60460,7 +60644,7 @@
         <v>71.290000000000006</v>
       </c>
       <c r="C1182">
-        <v>680.10260000000005</v>
+        <v>680.14030000000002</v>
       </c>
       <c r="D1182">
         <v>589.08000000000004</v>
@@ -60474,7 +60658,7 @@
         <v>70.819999999999993</v>
       </c>
       <c r="C1183">
-        <v>694.77970000000005</v>
+        <v>691.09559999999999</v>
       </c>
       <c r="D1183">
         <v>583.88</v>
@@ -60488,7 +60672,7 @@
         <v>70.05</v>
       </c>
       <c r="C1184">
-        <v>698.24159999999995</v>
+        <v>698.41560000000004</v>
       </c>
       <c r="D1184">
         <v>580.85</v>
@@ -60502,7 +60686,7 @@
         <v>70.02</v>
       </c>
       <c r="C1185">
-        <v>698.49390000000005</v>
+        <v>698.12969999999996</v>
       </c>
       <c r="D1185">
         <v>584.66999999999996</v>
@@ -60516,7 +60700,7 @@
         <v>70.36</v>
       </c>
       <c r="C1186">
-        <v>701.80799999999999</v>
+        <v>702.05600000000004</v>
       </c>
       <c r="D1186">
         <v>579.61</v>
@@ -60530,7 +60714,7 @@
         <v>70.17</v>
       </c>
       <c r="C1187">
-        <v>705.46040000000005</v>
+        <v>705.69280000000003</v>
       </c>
       <c r="D1187">
         <v>578.58000000000004</v>
@@ -60544,7 +60728,7 @@
         <v>70.040000000000006</v>
       </c>
       <c r="C1188">
-        <v>717.10310000000004</v>
+        <v>718.0394</v>
       </c>
       <c r="D1188">
         <v>580.46</v>
@@ -60558,7 +60742,7 @@
         <v>71.13</v>
       </c>
       <c r="C1189">
-        <v>717.10310000000004</v>
+        <v>721.26390000000004</v>
       </c>
       <c r="D1189">
         <v>578.49</v>
@@ -60569,187 +60753,671 @@
         <v>45854</v>
       </c>
       <c r="B1190">
-        <v>71.13</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="C1190">
-        <v>717.10310000000004</v>
+        <v>724.41020000000003</v>
       </c>
       <c r="D1190">
-        <v>580.89</v>
+        <v>578.86</v>
       </c>
     </row>
     <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1191" s="2"/>
+      <c r="A1191" s="2">
+        <v>45855</v>
+      </c>
+      <c r="B1191">
+        <v>70.17</v>
+      </c>
+      <c r="C1191">
+        <v>727.07569999999998</v>
+      </c>
+      <c r="D1191">
+        <v>579.20000000000005</v>
+      </c>
     </row>
     <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1192" s="2"/>
+      <c r="A1192" s="2">
+        <v>45856</v>
+      </c>
+      <c r="B1192">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="C1192">
+        <v>730.33640000000003</v>
+      </c>
+      <c r="D1192">
+        <v>580.94000000000005</v>
+      </c>
     </row>
     <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1193" s="2"/>
+      <c r="A1193" s="2">
+        <v>45859</v>
+      </c>
+      <c r="B1193">
+        <v>69.47</v>
+      </c>
+      <c r="C1193">
+        <v>741.85500000000002</v>
+      </c>
+      <c r="D1193">
+        <v>582.85</v>
+      </c>
     </row>
     <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1194" s="2"/>
+      <c r="A1194" s="2">
+        <v>45860</v>
+      </c>
+      <c r="B1194">
+        <v>68.75</v>
+      </c>
+      <c r="C1194">
+        <v>745.20100000000002</v>
+      </c>
+      <c r="D1194">
+        <v>590.5</v>
+      </c>
     </row>
     <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1195" s="2"/>
+      <c r="A1195" s="2">
+        <v>45861</v>
+      </c>
+      <c r="B1195">
+        <v>69</v>
+      </c>
+      <c r="C1195">
+        <v>748.44460000000004</v>
+      </c>
+      <c r="D1195">
+        <v>574.92999999999995</v>
+      </c>
     </row>
     <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1196" s="2"/>
+      <c r="A1196" s="2">
+        <v>45862</v>
+      </c>
+      <c r="B1196">
+        <v>70.5</v>
+      </c>
+      <c r="C1196">
+        <v>751.23919999999998</v>
+      </c>
+      <c r="D1196">
+        <v>573.29999999999995</v>
+      </c>
     </row>
     <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1197" s="2"/>
+      <c r="A1197" s="2">
+        <v>45863</v>
+      </c>
+      <c r="B1197">
+        <v>70.959999999999994</v>
+      </c>
+      <c r="C1197">
+        <v>754.42049999999995</v>
+      </c>
+      <c r="D1197">
+        <v>576.26</v>
+      </c>
     </row>
     <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1198" s="2"/>
+      <c r="A1198" s="2">
+        <v>45866</v>
+      </c>
+      <c r="B1198">
+        <v>70.27</v>
+      </c>
+      <c r="C1198">
+        <v>767.07439999999997</v>
+      </c>
+      <c r="D1198">
+        <v>572.9</v>
+      </c>
     </row>
     <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1199" s="2"/>
+      <c r="A1199" s="2">
+        <v>45867</v>
+      </c>
+      <c r="B1199">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="C1199">
+        <v>771.06349999999998</v>
+      </c>
+      <c r="D1199">
+        <v>572.57000000000005</v>
+      </c>
     </row>
     <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1200" s="2"/>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1201" s="2"/>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1202" s="2"/>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1203" s="2"/>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1204" s="2"/>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1205" s="2"/>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1206" s="2"/>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1207" s="2"/>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1208" s="2"/>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1209" s="2"/>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1210" s="2"/>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1211" s="2"/>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1212" s="2"/>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1213" s="2"/>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1214" s="2"/>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1215" s="2"/>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1216" s="2"/>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="2"/>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1218" s="2"/>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1219" s="2"/>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1220" s="2"/>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1221" s="2"/>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1222" s="2"/>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1223" s="2"/>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1224" s="2"/>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1225" s="2"/>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1226" s="2"/>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1227" s="2"/>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1228" s="2"/>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229" s="2"/>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230" s="2"/>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1231" s="2"/>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1232" s="2"/>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1233" s="2"/>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1234" s="2"/>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1200" s="2">
+        <v>45868</v>
+      </c>
+      <c r="B1200">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="C1200">
+        <v>774.95540000000005</v>
+      </c>
+      <c r="D1200">
+        <v>575.14</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201" s="2">
+        <v>45869</v>
+      </c>
+      <c r="B1201">
+        <v>72.25</v>
+      </c>
+      <c r="C1201">
+        <v>778.30690000000004</v>
+      </c>
+      <c r="D1201">
+        <v>573.77</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B1202">
+        <v>70.66</v>
+      </c>
+      <c r="C1202">
+        <v>781.87829999999997</v>
+      </c>
+      <c r="D1202">
+        <v>570.17999999999995</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203" s="2">
+        <v>45873</v>
+      </c>
+      <c r="B1203">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="C1203">
+        <v>794.50609999999995</v>
+      </c>
+      <c r="D1203">
+        <v>576.95000000000005</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204" s="2">
+        <v>45874</v>
+      </c>
+      <c r="B1204">
+        <v>71.2</v>
+      </c>
+      <c r="C1204">
+        <v>798.3</v>
+      </c>
+      <c r="D1204">
+        <v>575.69000000000005</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205" s="2">
+        <v>45875</v>
+      </c>
+      <c r="B1205">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="C1205">
+        <v>801.98199999999997</v>
+      </c>
+      <c r="D1205">
+        <v>577.28</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206" s="2">
+        <v>45876</v>
+      </c>
+      <c r="B1206">
+        <v>71.38</v>
+      </c>
+      <c r="C1206">
+        <v>805.53060000000005</v>
+      </c>
+      <c r="D1206">
+        <v>574.55999999999995</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207" s="2">
+        <v>45877</v>
+      </c>
+      <c r="B1207">
+        <v>72.81</v>
+      </c>
+      <c r="C1207">
+        <v>809.06359999999995</v>
+      </c>
+      <c r="D1207">
+        <v>572.91999999999996</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208" s="2">
+        <v>45880</v>
+      </c>
+      <c r="B1208">
+        <v>71.98</v>
+      </c>
+      <c r="C1208">
+        <v>820.99459999999999</v>
+      </c>
+      <c r="D1208">
+        <v>569.57000000000005</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209" s="2">
+        <v>45881</v>
+      </c>
+      <c r="B1209">
+        <v>71.12</v>
+      </c>
+      <c r="C1209">
+        <v>823.96199999999999</v>
+      </c>
+      <c r="D1209">
+        <v>569.04999999999995</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210" s="2">
+        <v>45882</v>
+      </c>
+      <c r="B1210">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="C1210">
+        <v>826.69640000000004</v>
+      </c>
+      <c r="D1210">
+        <v>574.23</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211" s="2">
+        <v>45883</v>
+      </c>
+      <c r="B1211">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="C1211">
+        <v>829.56510000000003</v>
+      </c>
+      <c r="D1211">
+        <v>581.54</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212" s="2">
+        <v>45884</v>
+      </c>
+      <c r="B1212">
+        <v>70.3</v>
+      </c>
+      <c r="C1212">
+        <v>833.09529999999995</v>
+      </c>
+      <c r="D1212">
+        <v>582.17999999999995</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213" s="2">
+        <v>45887</v>
+      </c>
+      <c r="B1213">
+        <v>71.44</v>
+      </c>
+      <c r="C1213">
+        <v>843.78020000000004</v>
+      </c>
+      <c r="D1213">
+        <v>581.16999999999996</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B1214">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="C1214">
+        <v>847.05650000000003</v>
+      </c>
+      <c r="D1214">
+        <v>584.53</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215" s="2">
+        <v>45889</v>
+      </c>
+      <c r="B1215">
+        <v>70.91</v>
+      </c>
+      <c r="C1215">
+        <v>850.11289999999997</v>
+      </c>
+      <c r="D1215">
+        <v>589.66</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216" s="2">
+        <v>45890</v>
+      </c>
+      <c r="B1216">
+        <v>72.23</v>
+      </c>
+      <c r="C1216">
+        <v>853.30290000000002</v>
+      </c>
+      <c r="D1216">
+        <v>590.74</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B1217">
+        <v>72.13</v>
+      </c>
+      <c r="C1217">
+        <v>856.33590000000004</v>
+      </c>
+      <c r="D1217">
+        <v>591.36</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B1218">
+        <v>71.81</v>
+      </c>
+      <c r="C1218">
+        <v>866.45169999999996</v>
+      </c>
+      <c r="D1218">
+        <v>584.37</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B1219">
+        <v>72.36</v>
+      </c>
+      <c r="C1219">
+        <v>868.93359999999996</v>
+      </c>
+      <c r="D1219">
+        <v>580.98</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220" s="2">
+        <v>45896</v>
+      </c>
+      <c r="B1220">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="C1220">
+        <v>871.07989999999995</v>
+      </c>
+      <c r="D1220">
+        <v>581.89</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B1221">
+        <v>71.33</v>
+      </c>
+      <c r="C1221">
+        <v>873.34969999999998</v>
+      </c>
+      <c r="D1221">
+        <v>579.75</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B1222">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="C1222">
+        <v>876.01239999999996</v>
+      </c>
+      <c r="D1222">
+        <v>574.09</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B1223">
+        <v>73.56</v>
+      </c>
+      <c r="C1223">
+        <v>887.91030000000001</v>
+      </c>
+      <c r="D1223">
+        <v>569.52</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224" s="2">
+        <v>45902</v>
+      </c>
+      <c r="B1224">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="C1224">
+        <v>890.24390000000005</v>
+      </c>
+      <c r="D1224">
+        <v>561.46</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225" s="2">
+        <v>45903</v>
+      </c>
+      <c r="B1225">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="C1225">
+        <v>892.88689999999997</v>
+      </c>
+      <c r="D1225">
+        <v>562.86</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226" s="2">
+        <v>45904</v>
+      </c>
+      <c r="B1226">
+        <v>75.03</v>
+      </c>
+      <c r="C1226">
+        <v>895.52449999999999</v>
+      </c>
+      <c r="D1226">
+        <v>563.76</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B1227">
+        <v>75.64</v>
+      </c>
+      <c r="C1227">
+        <v>897.92110000000002</v>
+      </c>
+      <c r="D1227">
+        <v>566.24</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B1228">
+        <v>76.77</v>
+      </c>
+      <c r="C1228">
+        <v>905.81590000000006</v>
+      </c>
+      <c r="D1228">
+        <v>565.6</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B1229">
+        <v>76.5</v>
+      </c>
+      <c r="C1229">
+        <v>907.26440000000002</v>
+      </c>
+      <c r="D1229">
+        <v>562.85</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B1230">
+        <v>76.7</v>
+      </c>
+      <c r="C1230">
+        <v>908.57939999999996</v>
+      </c>
+      <c r="D1230">
+        <v>565.74</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B1231">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="C1231">
+        <v>910.06889999999999</v>
+      </c>
+      <c r="D1231">
+        <v>565.62</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B1232">
+        <v>75.37</v>
+      </c>
+      <c r="C1232">
+        <v>912.03139999999996</v>
+      </c>
+      <c r="D1232">
+        <v>568.05999999999995</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B1233">
+        <v>76.36</v>
+      </c>
+      <c r="C1233">
+        <v>917.32460000000003</v>
+      </c>
+      <c r="D1233">
+        <v>571.83000000000004</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B1234">
+        <v>76.27</v>
+      </c>
+      <c r="C1234">
+        <v>917.32460000000003</v>
+      </c>
+      <c r="D1234">
+        <v>568.34</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1235" s="2"/>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1236" s="2"/>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1237" s="2"/>
     </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1238" s="2"/>
     </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1239" s="2"/>
     </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" s="2"/>
     </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1241" s="2"/>
     </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1242" s="2"/>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1243" s="2"/>
     </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1244" s="2"/>
     </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1245" s="2"/>
     </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1246" s="2"/>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1247" s="2"/>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1248" s="2"/>
     </row>
     <row r="1249" spans="1:1" x14ac:dyDescent="0.25">

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFDAFAF-2935-424B-9351-CA758F28CA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4616EA6F-27B4-4828-A43E-04F81FBAE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
@@ -260,6 +260,8 @@
         <tr r="A7" s="3"/>
         <tr r="A7" s="2"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -628,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1496"/>
+  <dimension ref="A1:F1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,26 +737,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1490")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1495")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1490")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1495")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1490")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1495")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1490")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1495")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1490")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1495")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -29603,7 +29605,7 @@
         <v>45852</v>
       </c>
       <c r="B1450">
-        <v>718.0394</v>
+        <v>718.03639999999996</v>
       </c>
       <c r="C1450">
         <v>3052</v>
@@ -29612,7 +29614,7 @@
         <v>2.8188</v>
       </c>
       <c r="E1450">
-        <v>137.49510000000001</v>
+        <v>137.49209999999999</v>
       </c>
       <c r="F1450">
         <v>75.338899999999995</v>
@@ -29623,7 +29625,7 @@
         <v>45853</v>
       </c>
       <c r="B1451">
-        <v>721.26390000000004</v>
+        <v>721.26089999999999</v>
       </c>
       <c r="C1451">
         <v>3052</v>
@@ -29632,7 +29634,7 @@
         <v>2.8462000000000001</v>
       </c>
       <c r="E1451">
-        <v>138.0573</v>
+        <v>138.05430000000001</v>
       </c>
       <c r="F1451">
         <v>75.840699999999998</v>
@@ -29643,7 +29645,7 @@
         <v>45854</v>
       </c>
       <c r="B1452">
-        <v>724.41020000000003</v>
+        <v>724.40719999999999</v>
       </c>
       <c r="C1452">
         <v>3052</v>
@@ -29652,7 +29654,7 @@
         <v>2.8092000000000001</v>
       </c>
       <c r="E1452">
-        <v>138.6934</v>
+        <v>138.69040000000001</v>
       </c>
       <c r="F1452">
         <v>76.295299999999997</v>
@@ -29663,7 +29665,7 @@
         <v>45855</v>
       </c>
       <c r="B1453">
-        <v>727.07569999999998</v>
+        <v>727.07270000000005</v>
       </c>
       <c r="C1453">
         <v>3052</v>
@@ -29672,7 +29674,7 @@
         <v>2.8287</v>
       </c>
       <c r="E1453">
-        <v>139.17850000000001</v>
+        <v>139.1755</v>
       </c>
       <c r="F1453">
         <v>76.694999999999993</v>
@@ -29683,7 +29685,7 @@
         <v>45856</v>
       </c>
       <c r="B1454">
-        <v>730.33640000000003</v>
+        <v>730.33339999999998</v>
       </c>
       <c r="C1454">
         <v>3075</v>
@@ -29692,7 +29694,7 @@
         <v>2.8736999999999999</v>
       </c>
       <c r="E1454">
-        <v>139.82769999999999</v>
+        <v>139.82470000000001</v>
       </c>
       <c r="F1454">
         <v>77.142700000000005</v>
@@ -29703,7 +29705,7 @@
         <v>45859</v>
       </c>
       <c r="B1455">
-        <v>741.85500000000002</v>
+        <v>741.85199999999998</v>
       </c>
       <c r="C1455">
         <v>3075</v>
@@ -29712,7 +29714,7 @@
         <v>3.0085999999999999</v>
       </c>
       <c r="E1455">
-        <v>142.6626</v>
+        <v>142.65960000000001</v>
       </c>
       <c r="F1455">
         <v>78.614199999999997</v>
@@ -29723,7 +29725,7 @@
         <v>45860</v>
       </c>
       <c r="B1456">
-        <v>745.20100000000002</v>
+        <v>745.1979</v>
       </c>
       <c r="C1456">
         <v>3075</v>
@@ -29732,7 +29734,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="E1456">
-        <v>143.29339999999999</v>
+        <v>143.29040000000001</v>
       </c>
       <c r="F1456">
         <v>79.219899999999996</v>
@@ -29743,7 +29745,7 @@
         <v>45861</v>
       </c>
       <c r="B1457">
-        <v>748.44460000000004</v>
+        <v>748.44150000000002</v>
       </c>
       <c r="C1457">
         <v>3075</v>
@@ -29752,7 +29754,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="E1457">
-        <v>143.9186</v>
+        <v>143.91560000000001</v>
       </c>
       <c r="F1457">
         <v>79.659300000000002</v>
@@ -29763,7 +29765,7 @@
         <v>45862</v>
       </c>
       <c r="B1458">
-        <v>751.23919999999998</v>
+        <v>751.23609999999996</v>
       </c>
       <c r="C1458">
         <v>3075</v>
@@ -29772,7 +29774,7 @@
         <v>3.0579999999999998</v>
       </c>
       <c r="E1458">
-        <v>144.30850000000001</v>
+        <v>144.30549999999999</v>
       </c>
       <c r="F1458">
         <v>80.125900000000001</v>
@@ -29783,7 +29785,7 @@
         <v>45863</v>
       </c>
       <c r="B1459">
-        <v>754.42049999999995</v>
+        <v>754.41750000000002</v>
       </c>
       <c r="C1459">
         <v>3123</v>
@@ -29792,7 +29794,7 @@
         <v>3.1030000000000002</v>
       </c>
       <c r="E1459">
-        <v>144.91470000000001</v>
+        <v>144.9117</v>
       </c>
       <c r="F1459">
         <v>80.623800000000003</v>
@@ -29803,7 +29805,7 @@
         <v>45866</v>
       </c>
       <c r="B1460">
-        <v>767.07439999999997</v>
+        <v>767.07140000000004</v>
       </c>
       <c r="C1460">
         <v>3123</v>
@@ -29812,7 +29814,7 @@
         <v>3.2551999999999999</v>
       </c>
       <c r="E1460">
-        <v>147.99629999999999</v>
+        <v>147.9933</v>
       </c>
       <c r="F1460">
         <v>82.201599999999999</v>
@@ -29823,7 +29825,7 @@
         <v>45867</v>
       </c>
       <c r="B1461">
-        <v>771.06349999999998</v>
+        <v>771.06050000000005</v>
       </c>
       <c r="C1461">
         <v>3123</v>
@@ -29832,7 +29834,7 @@
         <v>3.3001999999999998</v>
       </c>
       <c r="E1461">
-        <v>148.82550000000001</v>
+        <v>148.82249999999999</v>
       </c>
       <c r="F1461">
         <v>82.703000000000003</v>
@@ -29843,7 +29845,7 @@
         <v>45868</v>
       </c>
       <c r="B1462">
-        <v>774.95540000000005</v>
+        <v>774.95240000000001</v>
       </c>
       <c r="C1462">
         <v>3123</v>
@@ -29852,7 +29854,7 @@
         <v>3.3599000000000001</v>
       </c>
       <c r="E1462">
-        <v>149.76130000000001</v>
+        <v>149.75829999999999</v>
       </c>
       <c r="F1462">
         <v>83.137</v>
@@ -29863,7 +29865,7 @@
         <v>45869</v>
       </c>
       <c r="B1463">
-        <v>778.30690000000004</v>
+        <v>778.3039</v>
       </c>
       <c r="C1463">
         <v>3123</v>
@@ -29872,7 +29874,7 @@
         <v>3.4049</v>
       </c>
       <c r="E1463">
-        <v>150.40010000000001</v>
+        <v>150.39709999999999</v>
       </c>
       <c r="F1463">
         <v>83.540800000000004</v>
@@ -29883,7 +29885,7 @@
         <v>45870</v>
       </c>
       <c r="B1464">
-        <v>781.87829999999997</v>
+        <v>781.87519999999995</v>
       </c>
       <c r="C1464">
         <v>3130</v>
@@ -29892,7 +29894,7 @@
         <v>3.4657</v>
       </c>
       <c r="E1464">
-        <v>151.16419999999999</v>
+        <v>151.16120000000001</v>
       </c>
       <c r="F1464">
         <v>83.953000000000003</v>
@@ -29903,7 +29905,7 @@
         <v>45873</v>
       </c>
       <c r="B1465">
-        <v>794.50609999999995</v>
+        <v>794.50310000000002</v>
       </c>
       <c r="C1465">
         <v>3130</v>
@@ -29912,7 +29914,7 @@
         <v>3.6278000000000001</v>
       </c>
       <c r="E1465">
-        <v>154.7243</v>
+        <v>154.72130000000001</v>
       </c>
       <c r="F1465">
         <v>85.118300000000005</v>
@@ -29923,7 +29925,7 @@
         <v>45874</v>
       </c>
       <c r="B1466">
-        <v>798.3</v>
+        <v>798.29700000000003</v>
       </c>
       <c r="C1466">
         <v>3130</v>
@@ -29932,7 +29934,7 @@
         <v>3.8363</v>
       </c>
       <c r="E1466">
-        <v>155.81450000000001</v>
+        <v>155.8115</v>
       </c>
       <c r="F1466">
         <v>85.439300000000003</v>
@@ -29943,7 +29945,7 @@
         <v>45875</v>
       </c>
       <c r="B1467">
-        <v>801.98199999999997</v>
+        <v>801.97900000000004</v>
       </c>
       <c r="C1467">
         <v>3130</v>
@@ -29952,7 +29954,7 @@
         <v>3.944</v>
       </c>
       <c r="E1467">
-        <v>156.71440000000001</v>
+        <v>156.7114</v>
       </c>
       <c r="F1467">
         <v>85.705399999999997</v>
@@ -29963,7 +29965,7 @@
         <v>45876</v>
       </c>
       <c r="B1468">
-        <v>805.53060000000005</v>
+        <v>805.52760000000001</v>
       </c>
       <c r="C1468">
         <v>3130</v>
@@ -29972,7 +29974,7 @@
         <v>4.0647000000000002</v>
       </c>
       <c r="E1468">
-        <v>157.53829999999999</v>
+        <v>157.53530000000001</v>
       </c>
       <c r="F1468">
         <v>86.040599999999998</v>
@@ -29983,7 +29985,7 @@
         <v>45877</v>
       </c>
       <c r="B1469">
-        <v>809.06359999999995</v>
+        <v>809.06060000000002</v>
       </c>
       <c r="C1469">
         <v>3186</v>
@@ -29992,7 +29994,7 @@
         <v>4.1501999999999999</v>
       </c>
       <c r="E1469">
-        <v>158.38079999999999</v>
+        <v>158.37780000000001</v>
       </c>
       <c r="F1469">
         <v>86.463700000000003</v>
@@ -30003,7 +30005,7 @@
         <v>45880</v>
       </c>
       <c r="B1470">
-        <v>820.99459999999999</v>
+        <v>820.99159999999995</v>
       </c>
       <c r="C1470">
         <v>3186</v>
@@ -30012,7 +30014,7 @@
         <v>4.4446000000000003</v>
       </c>
       <c r="E1470">
-        <v>161.44370000000001</v>
+        <v>161.44069999999999</v>
       </c>
       <c r="F1470">
         <v>87.700999999999993</v>
@@ -30023,7 +30025,7 @@
         <v>45881</v>
       </c>
       <c r="B1471">
-        <v>823.96199999999999</v>
+        <v>823.95899999999995</v>
       </c>
       <c r="C1471">
         <v>3186</v>
@@ -30032,7 +30034,7 @@
         <v>4.4355000000000002</v>
       </c>
       <c r="E1471">
-        <v>162.1422</v>
+        <v>162.13919999999999</v>
       </c>
       <c r="F1471">
         <v>87.947800000000001</v>
@@ -30043,7 +30045,7 @@
         <v>45882</v>
       </c>
       <c r="B1472">
-        <v>826.69640000000004</v>
+        <v>826.69330000000002</v>
       </c>
       <c r="C1472">
         <v>3186</v>
@@ -30052,7 +30054,7 @@
         <v>4.4782999999999999</v>
       </c>
       <c r="E1472">
-        <v>162.76599999999999</v>
+        <v>162.76300000000001</v>
       </c>
       <c r="F1472">
         <v>88.1721</v>
@@ -30063,7 +30065,7 @@
         <v>45883</v>
       </c>
       <c r="B1473">
-        <v>829.56510000000003</v>
+        <v>829.56209999999999</v>
       </c>
       <c r="C1473">
         <v>3186</v>
@@ -30072,7 +30074,7 @@
         <v>4.5212000000000003</v>
       </c>
       <c r="E1473">
-        <v>163.50370000000001</v>
+        <v>163.50069999999999</v>
       </c>
       <c r="F1473">
         <v>88.386300000000006</v>
@@ -30083,7 +30085,7 @@
         <v>45884</v>
       </c>
       <c r="B1474">
-        <v>833.09529999999995</v>
+        <v>833.09230000000002</v>
       </c>
       <c r="C1474">
         <v>3199</v>
@@ -30092,7 +30094,7 @@
         <v>4.5640000000000001</v>
       </c>
       <c r="E1474">
-        <v>164.47649999999999</v>
+        <v>164.4735</v>
       </c>
       <c r="F1474">
         <v>88.743499999999997</v>
@@ -30103,7 +30105,7 @@
         <v>45887</v>
       </c>
       <c r="B1475">
-        <v>843.78020000000004</v>
+        <v>843.77719999999999</v>
       </c>
       <c r="C1475">
         <v>3199</v>
@@ -30112,7 +30114,7 @@
         <v>4.6619000000000002</v>
       </c>
       <c r="E1475">
-        <v>166.9674</v>
+        <v>166.96440000000001</v>
       </c>
       <c r="F1475">
         <v>89.889600000000002</v>
@@ -30123,7 +30125,7 @@
         <v>45888</v>
       </c>
       <c r="B1476">
-        <v>847.05650000000003</v>
+        <v>847.05349999999999</v>
       </c>
       <c r="C1476">
         <v>3199</v>
@@ -30132,7 +30134,7 @@
         <v>4.6943999999999999</v>
       </c>
       <c r="E1476">
-        <v>167.71019999999999</v>
+        <v>167.7072</v>
       </c>
       <c r="F1476">
         <v>90.212800000000001</v>
@@ -30143,7 +30145,7 @@
         <v>45889</v>
       </c>
       <c r="B1477">
-        <v>850.11289999999997</v>
+        <v>850.10990000000004</v>
       </c>
       <c r="C1477">
         <v>3199</v>
@@ -30152,7 +30154,7 @@
         <v>4.6357999999999997</v>
       </c>
       <c r="E1477">
-        <v>168.3289</v>
+        <v>168.32589999999999</v>
       </c>
       <c r="F1477">
         <v>90.557900000000004</v>
@@ -30163,7 +30165,7 @@
         <v>45890</v>
       </c>
       <c r="B1478">
-        <v>853.30290000000002</v>
+        <v>853.29989999999998</v>
       </c>
       <c r="C1478">
         <v>3199</v>
@@ -30172,7 +30174,7 @@
         <v>4.5976999999999997</v>
       </c>
       <c r="E1478">
-        <v>169.02969999999999</v>
+        <v>169.02670000000001</v>
       </c>
       <c r="F1478">
         <v>90.868600000000001</v>
@@ -30183,7 +30185,7 @@
         <v>45891</v>
       </c>
       <c r="B1479">
-        <v>856.33590000000004</v>
+        <v>856.3329</v>
       </c>
       <c r="C1479">
         <v>3217</v>
@@ -30192,7 +30194,7 @@
         <v>4.5976999999999997</v>
       </c>
       <c r="E1479">
-        <v>169.64869999999999</v>
+        <v>169.64570000000001</v>
       </c>
       <c r="F1479">
         <v>91.187600000000003</v>
@@ -30203,7 +30205,7 @@
         <v>45894</v>
       </c>
       <c r="B1480">
-        <v>866.45169999999996</v>
+        <v>866.44889999999998</v>
       </c>
       <c r="C1480">
         <v>3217</v>
@@ -30212,7 +30214,7 @@
         <v>4.5976999999999997</v>
       </c>
       <c r="E1480">
-        <v>172.08600000000001</v>
+        <v>172.083</v>
       </c>
       <c r="F1480">
         <v>92.1828</v>
@@ -30223,7 +30225,7 @@
         <v>45895</v>
       </c>
       <c r="B1481">
-        <v>868.93359999999996</v>
+        <v>868.93050000000005</v>
       </c>
       <c r="C1481">
         <v>3217</v>
@@ -30232,7 +30234,7 @@
         <v>4.5391000000000004</v>
       </c>
       <c r="E1481">
-        <v>172.7132</v>
+        <v>172.71019999999999</v>
       </c>
       <c r="F1481">
         <v>92.437200000000004</v>
@@ -30243,7 +30245,7 @@
         <v>45896</v>
       </c>
       <c r="B1482">
-        <v>871.07989999999995</v>
+        <v>871.07680000000005</v>
       </c>
       <c r="C1482">
         <v>3217</v>
@@ -30252,7 +30254,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="E1482">
-        <v>173.15360000000001</v>
+        <v>173.15049999999999</v>
       </c>
       <c r="F1482">
         <v>92.580100000000002</v>
@@ -30263,7 +30265,7 @@
         <v>45897</v>
       </c>
       <c r="B1483">
-        <v>873.34969999999998</v>
+        <v>873.34659999999997</v>
       </c>
       <c r="C1483">
         <v>3217</v>
@@ -30272,7 +30274,7 @@
         <v>4.4184999999999999</v>
       </c>
       <c r="E1483">
-        <v>173.87970000000001</v>
+        <v>173.8767</v>
       </c>
       <c r="F1483">
         <v>92.632400000000004</v>
@@ -30283,7 +30285,7 @@
         <v>45898</v>
       </c>
       <c r="B1484">
-        <v>876.01239999999996</v>
+        <v>876.00930000000005</v>
       </c>
       <c r="C1484">
         <v>3272</v>
@@ -30292,7 +30294,7 @@
         <v>4.3440000000000003</v>
       </c>
       <c r="E1484">
-        <v>174.7071</v>
+        <v>174.70410000000001</v>
       </c>
       <c r="F1484">
         <v>92.896299999999997</v>
@@ -30303,7 +30305,7 @@
         <v>45901</v>
       </c>
       <c r="B1485">
-        <v>887.91030000000001</v>
+        <v>887.90729999999996</v>
       </c>
       <c r="C1485">
         <v>3272</v>
@@ -30312,7 +30314,7 @@
         <v>4.2721999999999998</v>
       </c>
       <c r="E1485">
-        <v>180.38749999999999</v>
+        <v>180.3845</v>
       </c>
       <c r="F1485">
         <v>93.970699999999994</v>
@@ -30323,7 +30325,7 @@
         <v>45902</v>
       </c>
       <c r="B1486">
-        <v>890.24390000000005</v>
+        <v>890.24090000000001</v>
       </c>
       <c r="C1486">
         <v>3272</v>
@@ -30332,7 +30334,7 @@
         <v>4.3010000000000002</v>
       </c>
       <c r="E1486">
-        <v>180.6114</v>
+        <v>180.60839999999999</v>
       </c>
       <c r="F1486">
         <v>94.395399999999995</v>
@@ -30343,7 +30345,7 @@
         <v>45903</v>
       </c>
       <c r="B1487">
-        <v>892.88689999999997</v>
+        <v>892.88390000000004</v>
       </c>
       <c r="C1487">
         <v>3272</v>
@@ -30352,7 +30354,7 @@
         <v>4.3342000000000001</v>
       </c>
       <c r="E1487">
-        <v>181.23089999999999</v>
+        <v>181.22790000000001</v>
       </c>
       <c r="F1487">
         <v>94.910600000000002</v>
@@ -30363,7 +30365,7 @@
         <v>45904</v>
       </c>
       <c r="B1488">
-        <v>895.52449999999999</v>
+        <v>895.52149999999995</v>
       </c>
       <c r="C1488">
         <v>3272</v>
@@ -30372,7 +30374,7 @@
         <v>4.3672000000000004</v>
       </c>
       <c r="E1488">
-        <v>182.08349999999999</v>
+        <v>182.0805</v>
       </c>
       <c r="F1488">
         <v>95.227500000000006</v>
@@ -30383,7 +30385,7 @@
         <v>45905</v>
       </c>
       <c r="B1489">
-        <v>897.92110000000002</v>
+        <v>897.91800000000001</v>
       </c>
       <c r="C1489">
         <v>3343</v>
@@ -30392,7 +30394,7 @@
         <v>4.4001000000000001</v>
       </c>
       <c r="E1489">
-        <v>182.6952</v>
+        <v>182.69210000000001</v>
       </c>
       <c r="F1489">
         <v>95.636799999999994</v>
@@ -30403,7 +30405,7 @@
         <v>45908</v>
       </c>
       <c r="B1490">
-        <v>905.81590000000006</v>
+        <v>905.81290000000001</v>
       </c>
       <c r="C1490">
         <v>3343</v>
@@ -30412,7 +30414,7 @@
         <v>4.4862000000000002</v>
       </c>
       <c r="E1490">
-        <v>184.91290000000001</v>
+        <v>184.90989999999999</v>
       </c>
       <c r="F1490">
         <v>96.661500000000004</v>
@@ -30423,7 +30425,7 @@
         <v>45909</v>
       </c>
       <c r="B1491">
-        <v>907.26440000000002</v>
+        <v>907.26139999999998</v>
       </c>
       <c r="C1491">
         <v>3343</v>
@@ -30432,7 +30434,7 @@
         <v>4.4915000000000003</v>
       </c>
       <c r="E1491">
-        <v>185.1627</v>
+        <v>185.15960000000001</v>
       </c>
       <c r="F1491">
         <v>96.7774</v>
@@ -30443,7 +30445,7 @@
         <v>45910</v>
       </c>
       <c r="B1492">
-        <v>908.57939999999996</v>
+        <v>908.57640000000004</v>
       </c>
       <c r="C1492">
         <v>3343</v>
@@ -30452,7 +30454,7 @@
         <v>4.5114999999999998</v>
       </c>
       <c r="E1492">
-        <v>185.5926</v>
+        <v>185.58959999999999</v>
       </c>
       <c r="F1492">
         <v>96.907499999999999</v>
@@ -30463,7 +30465,7 @@
         <v>45911</v>
       </c>
       <c r="B1493">
-        <v>910.06889999999999</v>
+        <v>910.06590000000006</v>
       </c>
       <c r="C1493">
         <v>3343</v>
@@ -30472,7 +30474,7 @@
         <v>4.5378999999999996</v>
       </c>
       <c r="E1493">
-        <v>186.05250000000001</v>
+        <v>186.04949999999999</v>
       </c>
       <c r="F1493">
         <v>97.103300000000004</v>
@@ -30483,16 +30485,16 @@
         <v>45912</v>
       </c>
       <c r="B1494">
-        <v>912.03139999999996</v>
+        <v>912.02829999999994</v>
       </c>
       <c r="C1494">
-        <v>3343</v>
+        <v>3433</v>
       </c>
       <c r="D1494">
         <v>4.5643000000000002</v>
       </c>
       <c r="E1494">
-        <v>186.6696</v>
+        <v>186.66659999999999</v>
       </c>
       <c r="F1494">
         <v>97.2547</v>
@@ -30503,19 +30505,19 @@
         <v>45915</v>
       </c>
       <c r="B1495">
-        <v>917.32460000000003</v>
+        <v>920.10860000000002</v>
       </c>
       <c r="C1495">
-        <v>3343</v>
+        <v>3433</v>
       </c>
       <c r="D1495">
-        <v>4.6043000000000003</v>
+        <v>4.6322999999999999</v>
       </c>
       <c r="E1495">
-        <v>188.05420000000001</v>
+        <v>188.61930000000001</v>
       </c>
       <c r="F1495">
-        <v>98.122</v>
+        <v>98.639799999999994</v>
       </c>
     </row>
     <row r="1496" spans="1:6" x14ac:dyDescent="0.25">
@@ -30523,19 +30525,119 @@
         <v>45916</v>
       </c>
       <c r="B1496">
-        <v>917.32460000000003</v>
+        <v>921.77800000000002</v>
       </c>
       <c r="C1496">
-        <v>3343</v>
+        <v>3433</v>
       </c>
       <c r="D1496">
-        <v>4.6043000000000003</v>
+        <v>4.6322999999999999</v>
       </c>
       <c r="E1496">
-        <v>188.05420000000001</v>
+        <v>188.9555</v>
       </c>
       <c r="F1496">
-        <v>98.122</v>
+        <v>98.9482</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1497" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B1497">
+        <v>923.11810000000003</v>
+      </c>
+      <c r="C1497">
+        <v>3433</v>
+      </c>
+      <c r="D1497">
+        <v>4.6322999999999999</v>
+      </c>
+      <c r="E1497">
+        <v>189.21209999999999</v>
+      </c>
+      <c r="F1497">
+        <v>99.253200000000007</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1498" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B1498">
+        <v>924.72289999999998</v>
+      </c>
+      <c r="C1498">
+        <v>3433</v>
+      </c>
+      <c r="D1498">
+        <v>4.6322999999999999</v>
+      </c>
+      <c r="E1498">
+        <v>189.53030000000001</v>
+      </c>
+      <c r="F1498">
+        <v>99.475700000000003</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1499" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B1499">
+        <v>926.39480000000003</v>
+      </c>
+      <c r="C1499">
+        <v>3433</v>
+      </c>
+      <c r="D1499">
+        <v>4.6322999999999999</v>
+      </c>
+      <c r="E1499">
+        <v>189.86600000000001</v>
+      </c>
+      <c r="F1499">
+        <v>99.628</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1500" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B1500">
+        <v>931.81650000000002</v>
+      </c>
+      <c r="C1500">
+        <v>3433</v>
+      </c>
+      <c r="D1500">
+        <v>4.6840999999999999</v>
+      </c>
+      <c r="E1500">
+        <v>191.13079999999999</v>
+      </c>
+      <c r="F1500">
+        <v>100.0386</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1501" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B1501">
+        <v>931.81650000000002</v>
+      </c>
+      <c r="C1501">
+        <v>3433</v>
+      </c>
+      <c r="D1501">
+        <v>4.6840999999999999</v>
+      </c>
+      <c r="E1501">
+        <v>191.13079999999999</v>
+      </c>
+      <c r="F1501">
+        <v>100.0386</v>
       </c>
     </row>
   </sheetData>
@@ -30545,10 +30647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:C1234"/>
+  <dimension ref="A1:C1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30602,14 +30704,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1228")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1233")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1228")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1233")</f>
         <v>19.074999999999999</v>
       </c>
     </row>
@@ -44104,10 +44206,65 @@
         <v>45916</v>
       </c>
       <c r="B1234">
-        <v>76.27</v>
+        <v>77.11</v>
       </c>
       <c r="C1234">
-        <v>31.7</v>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1235" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B1235">
+        <v>76.59</v>
+      </c>
+      <c r="C1235">
+        <v>32.590000000000003</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1236" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B1236">
+        <v>77.44</v>
+      </c>
+      <c r="C1236">
+        <v>32.85</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1237" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B1237">
+        <v>77.16</v>
+      </c>
+      <c r="C1237">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1238" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B1238">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="C1238">
+        <v>31.965</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1239" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B1239">
+        <v>76.2</v>
+      </c>
+      <c r="C1239">
+        <v>32.25</v>
       </c>
     </row>
   </sheetData>
@@ -44119,8 +44276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA1694F-2CC7-4C25-BDC0-AC1855FCDAD5}">
   <dimension ref="A1:D1392"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44185,18 +44342,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1228")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1233")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1228")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1233")</f>
         <v>822.56110000000001</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1228")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1233")</f>
         <v>557.74</v>
       </c>
     </row>
@@ -60728,7 +60885,7 @@
         <v>70.040000000000006</v>
       </c>
       <c r="C1188">
-        <v>718.0394</v>
+        <v>718.03639999999996</v>
       </c>
       <c r="D1188">
         <v>580.46</v>
@@ -60742,7 +60899,7 @@
         <v>71.13</v>
       </c>
       <c r="C1189">
-        <v>721.26390000000004</v>
+        <v>721.26089999999999</v>
       </c>
       <c r="D1189">
         <v>578.49</v>
@@ -60756,7 +60913,7 @@
         <v>70.930000000000007</v>
       </c>
       <c r="C1190">
-        <v>724.41020000000003</v>
+        <v>724.40719999999999</v>
       </c>
       <c r="D1190">
         <v>578.86</v>
@@ -60770,7 +60927,7 @@
         <v>70.17</v>
       </c>
       <c r="C1191">
-        <v>727.07569999999998</v>
+        <v>727.07270000000005</v>
       </c>
       <c r="D1191">
         <v>579.20000000000005</v>
@@ -60784,7 +60941,7 @@
         <v>69.510000000000005</v>
       </c>
       <c r="C1192">
-        <v>730.33640000000003</v>
+        <v>730.33339999999998</v>
       </c>
       <c r="D1192">
         <v>580.94000000000005</v>
@@ -60798,7 +60955,7 @@
         <v>69.47</v>
       </c>
       <c r="C1193">
-        <v>741.85500000000002</v>
+        <v>741.85199999999998</v>
       </c>
       <c r="D1193">
         <v>582.85</v>
@@ -60812,7 +60969,7 @@
         <v>68.75</v>
       </c>
       <c r="C1194">
-        <v>745.20100000000002</v>
+        <v>745.1979</v>
       </c>
       <c r="D1194">
         <v>590.5</v>
@@ -60826,7 +60983,7 @@
         <v>69</v>
       </c>
       <c r="C1195">
-        <v>748.44460000000004</v>
+        <v>748.44150000000002</v>
       </c>
       <c r="D1195">
         <v>574.92999999999995</v>
@@ -60840,7 +60997,7 @@
         <v>70.5</v>
       </c>
       <c r="C1196">
-        <v>751.23919999999998</v>
+        <v>751.23609999999996</v>
       </c>
       <c r="D1196">
         <v>573.29999999999995</v>
@@ -60854,7 +61011,7 @@
         <v>70.959999999999994</v>
       </c>
       <c r="C1197">
-        <v>754.42049999999995</v>
+        <v>754.41750000000002</v>
       </c>
       <c r="D1197">
         <v>576.26</v>
@@ -60868,7 +61025,7 @@
         <v>70.27</v>
       </c>
       <c r="C1198">
-        <v>767.07439999999997</v>
+        <v>767.07140000000004</v>
       </c>
       <c r="D1198">
         <v>572.9</v>
@@ -60882,7 +61039,7 @@
         <v>72.680000000000007</v>
       </c>
       <c r="C1199">
-        <v>771.06349999999998</v>
+        <v>771.06050000000005</v>
       </c>
       <c r="D1199">
         <v>572.57000000000005</v>
@@ -60896,7 +61053,7 @@
         <v>72.459999999999994</v>
       </c>
       <c r="C1200">
-        <v>774.95540000000005</v>
+        <v>774.95240000000001</v>
       </c>
       <c r="D1200">
         <v>575.14</v>
@@ -60910,7 +61067,7 @@
         <v>72.25</v>
       </c>
       <c r="C1201">
-        <v>778.30690000000004</v>
+        <v>778.3039</v>
       </c>
       <c r="D1201">
         <v>573.77</v>
@@ -60924,7 +61081,7 @@
         <v>70.66</v>
       </c>
       <c r="C1202">
-        <v>781.87829999999997</v>
+        <v>781.87519999999995</v>
       </c>
       <c r="D1202">
         <v>570.17999999999995</v>
@@ -60938,7 +61095,7 @@
         <v>70.459999999999994</v>
       </c>
       <c r="C1203">
-        <v>794.50609999999995</v>
+        <v>794.50310000000002</v>
       </c>
       <c r="D1203">
         <v>576.95000000000005</v>
@@ -60952,7 +61109,7 @@
         <v>71.2</v>
       </c>
       <c r="C1204">
-        <v>798.3</v>
+        <v>798.29700000000003</v>
       </c>
       <c r="D1204">
         <v>575.69000000000005</v>
@@ -60966,7 +61123,7 @@
         <v>70.599999999999994</v>
       </c>
       <c r="C1205">
-        <v>801.98199999999997</v>
+        <v>801.97900000000004</v>
       </c>
       <c r="D1205">
         <v>577.28</v>
@@ -60980,7 +61137,7 @@
         <v>71.38</v>
       </c>
       <c r="C1206">
-        <v>805.53060000000005</v>
+        <v>805.52760000000001</v>
       </c>
       <c r="D1206">
         <v>574.55999999999995</v>
@@ -60994,7 +61151,7 @@
         <v>72.81</v>
       </c>
       <c r="C1207">
-        <v>809.06359999999995</v>
+        <v>809.06060000000002</v>
       </c>
       <c r="D1207">
         <v>572.91999999999996</v>
@@ -61008,7 +61165,7 @@
         <v>71.98</v>
       </c>
       <c r="C1208">
-        <v>820.99459999999999</v>
+        <v>820.99159999999995</v>
       </c>
       <c r="D1208">
         <v>569.57000000000005</v>
@@ -61022,7 +61179,7 @@
         <v>71.12</v>
       </c>
       <c r="C1209">
-        <v>823.96199999999999</v>
+        <v>823.95899999999995</v>
       </c>
       <c r="D1209">
         <v>569.04999999999995</v>
@@ -61036,7 +61193,7 @@
         <v>71.349999999999994</v>
       </c>
       <c r="C1210">
-        <v>826.69640000000004</v>
+        <v>826.69330000000002</v>
       </c>
       <c r="D1210">
         <v>574.23</v>
@@ -61050,7 +61207,7 @@
         <v>70.569999999999993</v>
       </c>
       <c r="C1211">
-        <v>829.56510000000003</v>
+        <v>829.56209999999999</v>
       </c>
       <c r="D1211">
         <v>581.54</v>
@@ -61064,7 +61221,7 @@
         <v>70.3</v>
       </c>
       <c r="C1212">
-        <v>833.09529999999995</v>
+        <v>833.09230000000002</v>
       </c>
       <c r="D1212">
         <v>582.17999999999995</v>
@@ -61078,7 +61235,7 @@
         <v>71.44</v>
       </c>
       <c r="C1213">
-        <v>843.78020000000004</v>
+        <v>843.77719999999999</v>
       </c>
       <c r="D1213">
         <v>581.16999999999996</v>
@@ -61092,7 +61249,7 @@
         <v>70.790000000000006</v>
       </c>
       <c r="C1214">
-        <v>847.05650000000003</v>
+        <v>847.05349999999999</v>
       </c>
       <c r="D1214">
         <v>584.53</v>
@@ -61106,7 +61263,7 @@
         <v>70.91</v>
       </c>
       <c r="C1215">
-        <v>850.11289999999997</v>
+        <v>850.10990000000004</v>
       </c>
       <c r="D1215">
         <v>589.66</v>
@@ -61120,7 +61277,7 @@
         <v>72.23</v>
       </c>
       <c r="C1216">
-        <v>853.30290000000002</v>
+        <v>853.29989999999998</v>
       </c>
       <c r="D1216">
         <v>590.74</v>
@@ -61134,7 +61291,7 @@
         <v>72.13</v>
       </c>
       <c r="C1217">
-        <v>856.33590000000004</v>
+        <v>856.3329</v>
       </c>
       <c r="D1217">
         <v>591.36</v>
@@ -61148,7 +61305,7 @@
         <v>71.81</v>
       </c>
       <c r="C1218">
-        <v>866.45169999999996</v>
+        <v>866.44889999999998</v>
       </c>
       <c r="D1218">
         <v>584.37</v>
@@ -61162,7 +61319,7 @@
         <v>72.36</v>
       </c>
       <c r="C1219">
-        <v>868.93359999999996</v>
+        <v>868.93050000000005</v>
       </c>
       <c r="D1219">
         <v>580.98</v>
@@ -61176,7 +61333,7 @@
         <v>71.849999999999994</v>
       </c>
       <c r="C1220">
-        <v>871.07989999999995</v>
+        <v>871.07680000000005</v>
       </c>
       <c r="D1220">
         <v>581.89</v>
@@ -61190,7 +61347,7 @@
         <v>71.33</v>
       </c>
       <c r="C1221">
-        <v>873.34969999999998</v>
+        <v>873.34659999999997</v>
       </c>
       <c r="D1221">
         <v>579.75</v>
@@ -61204,7 +61361,7 @@
         <v>72.599999999999994</v>
       </c>
       <c r="C1222">
-        <v>876.01239999999996</v>
+        <v>876.00930000000005</v>
       </c>
       <c r="D1222">
         <v>574.09</v>
@@ -61218,7 +61375,7 @@
         <v>73.56</v>
       </c>
       <c r="C1223">
-        <v>887.91030000000001</v>
+        <v>887.90729999999996</v>
       </c>
       <c r="D1223">
         <v>569.52</v>
@@ -61232,7 +61389,7 @@
         <v>73.209999999999994</v>
       </c>
       <c r="C1224">
-        <v>890.24390000000005</v>
+        <v>890.24090000000001</v>
       </c>
       <c r="D1224">
         <v>561.46</v>
@@ -61246,7 +61403,7 @@
         <v>74.540000000000006</v>
       </c>
       <c r="C1225">
-        <v>892.88689999999997</v>
+        <v>892.88390000000004</v>
       </c>
       <c r="D1225">
         <v>562.86</v>
@@ -61260,7 +61417,7 @@
         <v>75.03</v>
       </c>
       <c r="C1226">
-        <v>895.52449999999999</v>
+        <v>895.52149999999995</v>
       </c>
       <c r="D1226">
         <v>563.76</v>
@@ -61274,7 +61431,7 @@
         <v>75.64</v>
       </c>
       <c r="C1227">
-        <v>897.92110000000002</v>
+        <v>897.91800000000001</v>
       </c>
       <c r="D1227">
         <v>566.24</v>
@@ -61288,7 +61445,7 @@
         <v>76.77</v>
       </c>
       <c r="C1228">
-        <v>905.81590000000006</v>
+        <v>905.81290000000001</v>
       </c>
       <c r="D1228">
         <v>565.6</v>
@@ -61302,7 +61459,7 @@
         <v>76.5</v>
       </c>
       <c r="C1229">
-        <v>907.26440000000002</v>
+        <v>907.26139999999998</v>
       </c>
       <c r="D1229">
         <v>562.85</v>
@@ -61316,7 +61473,7 @@
         <v>76.7</v>
       </c>
       <c r="C1230">
-        <v>908.57939999999996</v>
+        <v>908.57640000000004</v>
       </c>
       <c r="D1230">
         <v>565.74</v>
@@ -61330,7 +61487,7 @@
         <v>75.150000000000006</v>
       </c>
       <c r="C1231">
-        <v>910.06889999999999</v>
+        <v>910.06590000000006</v>
       </c>
       <c r="D1231">
         <v>565.62</v>
@@ -61344,7 +61501,7 @@
         <v>75.37</v>
       </c>
       <c r="C1232">
-        <v>912.03139999999996</v>
+        <v>912.02829999999994</v>
       </c>
       <c r="D1232">
         <v>568.05999999999995</v>
@@ -61358,7 +61515,7 @@
         <v>76.36</v>
       </c>
       <c r="C1233">
-        <v>917.32460000000003</v>
+        <v>920.10860000000002</v>
       </c>
       <c r="D1233">
         <v>571.83000000000004</v>
@@ -61369,29 +61526,84 @@
         <v>45916</v>
       </c>
       <c r="B1234">
-        <v>76.27</v>
+        <v>77.11</v>
       </c>
       <c r="C1234">
-        <v>917.32460000000003</v>
+        <v>921.77800000000002</v>
       </c>
       <c r="D1234">
-        <v>568.34</v>
+        <v>565.24</v>
       </c>
     </row>
     <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1235" s="2"/>
+      <c r="A1235" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B1235">
+        <v>76.59</v>
+      </c>
+      <c r="C1235">
+        <v>923.11810000000003</v>
+      </c>
+      <c r="D1235">
+        <v>563.5</v>
+      </c>
     </row>
     <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1236" s="2"/>
+      <c r="A1236" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B1236">
+        <v>77.44</v>
+      </c>
+      <c r="C1236">
+        <v>924.72289999999998</v>
+      </c>
+      <c r="D1236">
+        <v>560.22</v>
+      </c>
     </row>
     <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1237" s="2"/>
+      <c r="A1237" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B1237">
+        <v>77.16</v>
+      </c>
+      <c r="C1237">
+        <v>926.39480000000003</v>
+      </c>
+      <c r="D1237">
+        <v>561.1</v>
+      </c>
     </row>
     <row r="1238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1238" s="2"/>
+      <c r="A1238" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B1238">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="C1238">
+        <v>931.81650000000002</v>
+      </c>
+      <c r="D1238">
+        <v>565.41999999999996</v>
+      </c>
     </row>
     <row r="1239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1239" s="2"/>
+      <c r="A1239" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B1239">
+        <v>76.2</v>
+      </c>
+      <c r="C1239">
+        <v>931.81650000000002</v>
+      </c>
+      <c r="D1239">
+        <v>569.88</v>
+      </c>
     </row>
     <row r="1240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1240" s="2"/>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4616EA6F-27B4-4828-A43E-04F81FBAE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A0222-1132-4F79-817B-F89B2A4892A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
@@ -257,11 +257,9 @@
         <v>#N/A</v>
         <stp/>
         <stp>BDH|5828156284080324637</stp>
+        <tr r="A7" s="2"/>
         <tr r="A7" s="3"/>
-        <tr r="A7" s="2"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -284,24 +282,24 @@
       </tp>
     </main>
     <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Correl EUA vs stocks!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="3"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Correl EUA vs stocks!R5C3</stp>
         <stp>PX_LAST</stp>
         <tr r="C5" s="3"/>
       </tp>
-      <tp t="s">
-        <v>Last Price</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Correl EUA vs stocks!R5C2</stp>
@@ -630,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1501"/>
+  <dimension ref="A1:F1505"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A1469" workbookViewId="0">
+      <selection activeCell="K1494" sqref="K1494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,26 +735,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1495")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1499")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1495")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1499")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1495")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1499")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1495")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1499")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1495")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1499")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -29365,7 +29363,7 @@
         <v>45834</v>
       </c>
       <c r="B1438">
-        <v>651.19389999999999</v>
+        <v>651.20439999999996</v>
       </c>
       <c r="C1438">
         <v>2898</v>
@@ -29385,7 +29383,7 @@
         <v>45835</v>
       </c>
       <c r="B1439">
-        <v>655.18280000000004</v>
+        <v>655.19320000000005</v>
       </c>
       <c r="C1439">
         <v>2953</v>
@@ -29405,7 +29403,7 @@
         <v>45838</v>
       </c>
       <c r="B1440">
-        <v>667.93449999999996</v>
+        <v>667.94489999999996</v>
       </c>
       <c r="C1440">
         <v>2953</v>
@@ -29425,7 +29423,7 @@
         <v>45839</v>
       </c>
       <c r="B1441">
-        <v>670.73490000000004</v>
+        <v>670.74530000000004</v>
       </c>
       <c r="C1441">
         <v>2953</v>
@@ -29445,7 +29443,7 @@
         <v>45840</v>
       </c>
       <c r="B1442">
-        <v>674.06619999999998</v>
+        <v>674.07659999999998</v>
       </c>
       <c r="C1442">
         <v>2953</v>
@@ -29465,7 +29463,7 @@
         <v>45841</v>
       </c>
       <c r="B1443">
-        <v>676.92409999999995</v>
+        <v>676.93449999999996</v>
       </c>
       <c r="C1443">
         <v>2953</v>
@@ -29485,7 +29483,7 @@
         <v>45842</v>
       </c>
       <c r="B1444">
-        <v>680.14030000000002</v>
+        <v>680.14919999999995</v>
       </c>
       <c r="C1444">
         <v>3006</v>
@@ -29505,7 +29503,7 @@
         <v>45845</v>
       </c>
       <c r="B1445">
-        <v>691.09559999999999</v>
+        <v>691.10659999999996</v>
       </c>
       <c r="C1445">
         <v>3006</v>
@@ -29525,7 +29523,7 @@
         <v>45846</v>
       </c>
       <c r="B1446">
-        <v>698.41560000000004</v>
+        <v>698.42660000000001</v>
       </c>
       <c r="C1446">
         <v>3006</v>
@@ -29545,7 +29543,7 @@
         <v>45847</v>
       </c>
       <c r="B1447">
-        <v>698.12969999999996</v>
+        <v>698.14070000000004</v>
       </c>
       <c r="C1447">
         <v>3006</v>
@@ -29585,7 +29583,7 @@
         <v>45849</v>
       </c>
       <c r="B1449">
-        <v>705.69280000000003</v>
+        <v>705.70320000000004</v>
       </c>
       <c r="C1449">
         <v>3052</v>
@@ -29605,7 +29603,7 @@
         <v>45852</v>
       </c>
       <c r="B1450">
-        <v>718.03639999999996</v>
+        <v>718.04679999999996</v>
       </c>
       <c r="C1450">
         <v>3052</v>
@@ -29625,7 +29623,7 @@
         <v>45853</v>
       </c>
       <c r="B1451">
-        <v>721.26089999999999</v>
+        <v>721.2713</v>
       </c>
       <c r="C1451">
         <v>3052</v>
@@ -29645,7 +29643,7 @@
         <v>45854</v>
       </c>
       <c r="B1452">
-        <v>724.40719999999999</v>
+        <v>723.64390000000003</v>
       </c>
       <c r="C1452">
         <v>3052</v>
@@ -29665,7 +29663,7 @@
         <v>45855</v>
       </c>
       <c r="B1453">
-        <v>727.07270000000005</v>
+        <v>726.31949999999995</v>
       </c>
       <c r="C1453">
         <v>3052</v>
@@ -29685,7 +29683,7 @@
         <v>45856</v>
       </c>
       <c r="B1454">
-        <v>730.33339999999998</v>
+        <v>729.59040000000005</v>
       </c>
       <c r="C1454">
         <v>3075</v>
@@ -29705,7 +29703,7 @@
         <v>45859</v>
       </c>
       <c r="B1455">
-        <v>741.85199999999998</v>
+        <v>741.13959999999997</v>
       </c>
       <c r="C1455">
         <v>3075</v>
@@ -29725,7 +29723,7 @@
         <v>45860</v>
       </c>
       <c r="B1456">
-        <v>745.1979</v>
+        <v>744.49570000000006</v>
       </c>
       <c r="C1456">
         <v>3075</v>
@@ -29745,7 +29743,7 @@
         <v>45861</v>
       </c>
       <c r="B1457">
-        <v>748.44150000000002</v>
+        <v>747.74950000000001</v>
       </c>
       <c r="C1457">
         <v>3075</v>
@@ -29765,7 +29763,7 @@
         <v>45862</v>
       </c>
       <c r="B1458">
-        <v>751.23609999999996</v>
+        <v>750.55420000000004</v>
       </c>
       <c r="C1458">
         <v>3075</v>
@@ -29785,7 +29783,7 @@
         <v>45863</v>
       </c>
       <c r="B1459">
-        <v>754.41750000000002</v>
+        <v>753.74580000000003</v>
       </c>
       <c r="C1459">
         <v>3123</v>
@@ -29805,7 +29803,7 @@
         <v>45866</v>
       </c>
       <c r="B1460">
-        <v>767.07140000000004</v>
+        <v>766.43010000000004</v>
       </c>
       <c r="C1460">
         <v>3123</v>
@@ -29825,7 +29823,7 @@
         <v>45867</v>
       </c>
       <c r="B1461">
-        <v>771.06050000000005</v>
+        <v>770.42939999999999</v>
       </c>
       <c r="C1461">
         <v>3123</v>
@@ -29845,7 +29843,7 @@
         <v>45868</v>
       </c>
       <c r="B1462">
-        <v>774.95240000000001</v>
+        <v>774.33150000000001</v>
       </c>
       <c r="C1462">
         <v>3123</v>
@@ -29865,7 +29863,7 @@
         <v>45869</v>
       </c>
       <c r="B1463">
-        <v>778.3039</v>
+        <v>777.68280000000004</v>
       </c>
       <c r="C1463">
         <v>3123</v>
@@ -29885,7 +29883,7 @@
         <v>45870</v>
       </c>
       <c r="B1464">
-        <v>781.87519999999995</v>
+        <v>781.87530000000004</v>
       </c>
       <c r="C1464">
         <v>3130</v>
@@ -29957,7 +29955,7 @@
         <v>156.7114</v>
       </c>
       <c r="F1467">
-        <v>85.705399999999997</v>
+        <v>85.705299999999994</v>
       </c>
     </row>
     <row r="1468" spans="1:6" x14ac:dyDescent="0.25">
@@ -30037,7 +30035,7 @@
         <v>162.13919999999999</v>
       </c>
       <c r="F1471">
-        <v>87.947800000000001</v>
+        <v>87.947699999999998</v>
       </c>
     </row>
     <row r="1472" spans="1:6" x14ac:dyDescent="0.25">
@@ -30117,7 +30115,7 @@
         <v>166.96440000000001</v>
       </c>
       <c r="F1475">
-        <v>89.889600000000002</v>
+        <v>89.889700000000005</v>
       </c>
     </row>
     <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
@@ -30125,7 +30123,7 @@
         <v>45888</v>
       </c>
       <c r="B1476">
-        <v>847.05349999999999</v>
+        <v>847.05359999999996</v>
       </c>
       <c r="C1476">
         <v>3199</v>
@@ -30137,7 +30135,7 @@
         <v>167.7072</v>
       </c>
       <c r="F1476">
-        <v>90.212800000000001</v>
+        <v>90.212900000000005</v>
       </c>
     </row>
     <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
@@ -30145,7 +30143,7 @@
         <v>45889</v>
       </c>
       <c r="B1477">
-        <v>850.10990000000004</v>
+        <v>850.11</v>
       </c>
       <c r="C1477">
         <v>3199</v>
@@ -30157,7 +30155,7 @@
         <v>168.32589999999999</v>
       </c>
       <c r="F1477">
-        <v>90.557900000000004</v>
+        <v>90.558000000000007</v>
       </c>
     </row>
     <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
@@ -30165,7 +30163,7 @@
         <v>45890</v>
       </c>
       <c r="B1478">
-        <v>853.29989999999998</v>
+        <v>853.2998</v>
       </c>
       <c r="C1478">
         <v>3199</v>
@@ -30185,7 +30183,7 @@
         <v>45891</v>
       </c>
       <c r="B1479">
-        <v>856.3329</v>
+        <v>856.33280000000002</v>
       </c>
       <c r="C1479">
         <v>3217</v>
@@ -30217,7 +30215,7 @@
         <v>172.083</v>
       </c>
       <c r="F1480">
-        <v>92.1828</v>
+        <v>92.182699999999997</v>
       </c>
     </row>
     <row r="1481" spans="1:6" x14ac:dyDescent="0.25">
@@ -30225,7 +30223,7 @@
         <v>45895</v>
       </c>
       <c r="B1481">
-        <v>868.93050000000005</v>
+        <v>868.93039999999996</v>
       </c>
       <c r="C1481">
         <v>3217</v>
@@ -30237,7 +30235,7 @@
         <v>172.71019999999999</v>
       </c>
       <c r="F1481">
-        <v>92.437200000000004</v>
+        <v>92.437100000000001</v>
       </c>
     </row>
     <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
@@ -30245,7 +30243,7 @@
         <v>45896</v>
       </c>
       <c r="B1482">
-        <v>871.07680000000005</v>
+        <v>871.07669999999996</v>
       </c>
       <c r="C1482">
         <v>3217</v>
@@ -30257,7 +30255,7 @@
         <v>173.15049999999999</v>
       </c>
       <c r="F1482">
-        <v>92.580100000000002</v>
+        <v>92.58</v>
       </c>
     </row>
     <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
@@ -30265,7 +30263,7 @@
         <v>45897</v>
       </c>
       <c r="B1483">
-        <v>873.34659999999997</v>
+        <v>873.34649999999999</v>
       </c>
       <c r="C1483">
         <v>3217</v>
@@ -30285,7 +30283,7 @@
         <v>45898</v>
       </c>
       <c r="B1484">
-        <v>876.00930000000005</v>
+        <v>876.00919999999996</v>
       </c>
       <c r="C1484">
         <v>3272</v>
@@ -30305,7 +30303,7 @@
         <v>45901</v>
       </c>
       <c r="B1485">
-        <v>887.90729999999996</v>
+        <v>887.90719999999999</v>
       </c>
       <c r="C1485">
         <v>3272</v>
@@ -30317,7 +30315,7 @@
         <v>180.3845</v>
       </c>
       <c r="F1485">
-        <v>93.970699999999994</v>
+        <v>93.970600000000005</v>
       </c>
     </row>
     <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
@@ -30325,7 +30323,7 @@
         <v>45902</v>
       </c>
       <c r="B1486">
-        <v>890.24090000000001</v>
+        <v>890.24080000000004</v>
       </c>
       <c r="C1486">
         <v>3272</v>
@@ -30337,7 +30335,7 @@
         <v>180.60839999999999</v>
       </c>
       <c r="F1486">
-        <v>94.395399999999995</v>
+        <v>94.395300000000006</v>
       </c>
     </row>
     <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
@@ -30365,7 +30363,7 @@
         <v>45904</v>
       </c>
       <c r="B1488">
-        <v>895.52149999999995</v>
+        <v>895.52139999999997</v>
       </c>
       <c r="C1488">
         <v>3272</v>
@@ -30377,7 +30375,7 @@
         <v>182.0805</v>
       </c>
       <c r="F1488">
-        <v>95.227500000000006</v>
+        <v>95.227400000000003</v>
       </c>
     </row>
     <row r="1489" spans="1:6" x14ac:dyDescent="0.25">
@@ -30397,7 +30395,7 @@
         <v>182.69210000000001</v>
       </c>
       <c r="F1489">
-        <v>95.636799999999994</v>
+        <v>95.636700000000005</v>
       </c>
     </row>
     <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
@@ -30417,7 +30415,7 @@
         <v>184.90989999999999</v>
       </c>
       <c r="F1490">
-        <v>96.661500000000004</v>
+        <v>96.6614</v>
       </c>
     </row>
     <row r="1491" spans="1:6" x14ac:dyDescent="0.25">
@@ -30425,7 +30423,7 @@
         <v>45909</v>
       </c>
       <c r="B1491">
-        <v>907.26139999999998</v>
+        <v>907.25829999999996</v>
       </c>
       <c r="C1491">
         <v>3343</v>
@@ -30437,7 +30435,7 @@
         <v>185.15960000000001</v>
       </c>
       <c r="F1491">
-        <v>96.7774</v>
+        <v>96.7744</v>
       </c>
     </row>
     <row r="1492" spans="1:6" x14ac:dyDescent="0.25">
@@ -30445,7 +30443,7 @@
         <v>45910</v>
       </c>
       <c r="B1492">
-        <v>908.57640000000004</v>
+        <v>908.58079999999995</v>
       </c>
       <c r="C1492">
         <v>3343</v>
@@ -30457,7 +30455,7 @@
         <v>185.58959999999999</v>
       </c>
       <c r="F1492">
-        <v>96.907499999999999</v>
+        <v>96.911900000000003</v>
       </c>
     </row>
     <row r="1493" spans="1:6" x14ac:dyDescent="0.25">
@@ -30465,7 +30463,7 @@
         <v>45911</v>
       </c>
       <c r="B1493">
-        <v>910.06590000000006</v>
+        <v>910.05820000000006</v>
       </c>
       <c r="C1493">
         <v>3343</v>
@@ -30477,7 +30475,7 @@
         <v>186.04949999999999</v>
       </c>
       <c r="F1493">
-        <v>97.103300000000004</v>
+        <v>97.108000000000004</v>
       </c>
     </row>
     <row r="1494" spans="1:6" x14ac:dyDescent="0.25">
@@ -30485,7 +30483,7 @@
         <v>45912</v>
       </c>
       <c r="B1494">
-        <v>912.02829999999994</v>
+        <v>912.0317</v>
       </c>
       <c r="C1494">
         <v>3433</v>
@@ -30497,7 +30495,7 @@
         <v>186.66659999999999</v>
       </c>
       <c r="F1494">
-        <v>97.2547</v>
+        <v>97.257999999999996</v>
       </c>
     </row>
     <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
@@ -30505,7 +30503,7 @@
         <v>45915</v>
       </c>
       <c r="B1495">
-        <v>920.10860000000002</v>
+        <v>920.11749999999995</v>
       </c>
       <c r="C1495">
         <v>3433</v>
@@ -30517,7 +30515,7 @@
         <v>188.61930000000001</v>
       </c>
       <c r="F1495">
-        <v>98.639799999999994</v>
+        <v>98.648700000000005</v>
       </c>
     </row>
     <row r="1496" spans="1:6" x14ac:dyDescent="0.25">
@@ -30525,7 +30523,7 @@
         <v>45916</v>
       </c>
       <c r="B1496">
-        <v>921.77800000000002</v>
+        <v>921.77790000000005</v>
       </c>
       <c r="C1496">
         <v>3433</v>
@@ -30545,7 +30543,7 @@
         <v>45917</v>
       </c>
       <c r="B1497">
-        <v>923.11810000000003</v>
+        <v>923.11940000000004</v>
       </c>
       <c r="C1497">
         <v>3433</v>
@@ -30557,7 +30555,7 @@
         <v>189.21209999999999</v>
       </c>
       <c r="F1497">
-        <v>99.253200000000007</v>
+        <v>99.254499999999993</v>
       </c>
     </row>
     <row r="1498" spans="1:6" x14ac:dyDescent="0.25">
@@ -30565,7 +30563,7 @@
         <v>45918</v>
       </c>
       <c r="B1498">
-        <v>924.72289999999998</v>
+        <v>924.72749999999996</v>
       </c>
       <c r="C1498">
         <v>3433</v>
@@ -30574,10 +30572,10 @@
         <v>4.6322999999999999</v>
       </c>
       <c r="E1498">
-        <v>189.53030000000001</v>
+        <v>189.53039999999999</v>
       </c>
       <c r="F1498">
-        <v>99.475700000000003</v>
+        <v>99.4803</v>
       </c>
     </row>
     <row r="1499" spans="1:6" x14ac:dyDescent="0.25">
@@ -30585,10 +30583,10 @@
         <v>45919</v>
       </c>
       <c r="B1499">
-        <v>926.39480000000003</v>
+        <v>926.39549999999997</v>
       </c>
       <c r="C1499">
-        <v>3433</v>
+        <v>3508</v>
       </c>
       <c r="D1499">
         <v>4.6322999999999999</v>
@@ -30597,7 +30595,7 @@
         <v>189.86600000000001</v>
       </c>
       <c r="F1499">
-        <v>99.628</v>
+        <v>99.633700000000005</v>
       </c>
     </row>
     <row r="1500" spans="1:6" x14ac:dyDescent="0.25">
@@ -30605,19 +30603,19 @@
         <v>45922</v>
       </c>
       <c r="B1500">
-        <v>931.81650000000002</v>
+        <v>933.05769999999995</v>
       </c>
       <c r="C1500">
-        <v>3433</v>
+        <v>3508</v>
       </c>
       <c r="D1500">
         <v>4.6840999999999999</v>
       </c>
       <c r="E1500">
-        <v>191.13079999999999</v>
+        <v>191.1885</v>
       </c>
       <c r="F1500">
-        <v>100.0386</v>
+        <v>100.1489</v>
       </c>
     </row>
     <row r="1501" spans="1:6" x14ac:dyDescent="0.25">
@@ -30625,19 +30623,99 @@
         <v>45923</v>
       </c>
       <c r="B1501">
-        <v>931.81650000000002</v>
+        <v>933.88649999999996</v>
       </c>
       <c r="C1501">
-        <v>3433</v>
+        <v>3508</v>
       </c>
       <c r="D1501">
         <v>4.6840999999999999</v>
       </c>
       <c r="E1501">
-        <v>191.13079999999999</v>
+        <v>191.11770000000001</v>
       </c>
       <c r="F1501">
-        <v>100.0386</v>
+        <v>100.2709</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1502" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B1502">
+        <v>934.61450000000002</v>
+      </c>
+      <c r="C1502">
+        <v>3508</v>
+      </c>
+      <c r="D1502">
+        <v>4.6840999999999999</v>
+      </c>
+      <c r="E1502">
+        <v>191.09270000000001</v>
+      </c>
+      <c r="F1502">
+        <v>100.3999</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1503" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B1503">
+        <v>935.33680000000004</v>
+      </c>
+      <c r="C1503">
+        <v>3508</v>
+      </c>
+      <c r="D1503">
+        <v>4.6840999999999999</v>
+      </c>
+      <c r="E1503">
+        <v>191.1438</v>
+      </c>
+      <c r="F1503">
+        <v>100.5141</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1504" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B1504">
+        <v>936.27409999999998</v>
+      </c>
+      <c r="C1504">
+        <v>3508</v>
+      </c>
+      <c r="D1504">
+        <v>4.6840999999999999</v>
+      </c>
+      <c r="E1504">
+        <v>191.23269999999999</v>
+      </c>
+      <c r="F1504">
+        <v>100.68340000000001</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1505" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B1505">
+        <v>938.00620000000004</v>
+      </c>
+      <c r="C1505">
+        <v>3508</v>
+      </c>
+      <c r="D1505">
+        <v>4.7023000000000001</v>
+      </c>
+      <c r="E1505">
+        <v>191.52160000000001</v>
+      </c>
+      <c r="F1505">
+        <v>100.9267</v>
       </c>
     </row>
   </sheetData>
@@ -30647,10 +30725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:C1239"/>
+  <dimension ref="A1:C1243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A1207" workbookViewId="0">
+      <selection activeCell="K1231" sqref="K1231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30704,14 +30782,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1233")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1237")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1233")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1237")</f>
         <v>19.074999999999999</v>
       </c>
     </row>
@@ -44261,10 +44339,54 @@
         <v>45923</v>
       </c>
       <c r="B1239">
-        <v>76.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C1239">
         <v>32.25</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1240" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B1240">
+        <v>75.62</v>
+      </c>
+      <c r="C1240">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1241" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B1241">
+        <v>75.37</v>
+      </c>
+      <c r="C1241">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1242" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B1242">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C1242">
+        <v>32.619999999999997</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1243" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B1243">
+        <v>75.040000000000006</v>
+      </c>
+      <c r="C1243">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -44277,7 +44399,7 @@
   <dimension ref="A1:D1392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A0222-1132-4F79-817B-F89B2A4892A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC450DA6-A4E9-4AE0-9302-3DCD80DF388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
@@ -253,6 +253,8 @@
         <stp>BDH|5247090130891257875</stp>
         <tr r="F7" s="1"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -628,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1505"/>
+  <dimension ref="A1:F1511"/>
   <sheetViews>
-    <sheetView topLeftCell="A1469" workbookViewId="0">
-      <selection activeCell="K1494" sqref="K1494"/>
+    <sheetView topLeftCell="A1475" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,26 +737,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1499")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1505")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1499")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1505")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1499")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1505")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1499")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1505")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1499")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1505")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -29883,7 +29885,7 @@
         <v>45870</v>
       </c>
       <c r="B1464">
-        <v>781.87530000000004</v>
+        <v>781.38139999999999</v>
       </c>
       <c r="C1464">
         <v>3130</v>
@@ -29903,7 +29905,7 @@
         <v>45873</v>
       </c>
       <c r="B1465">
-        <v>794.50310000000002</v>
+        <v>793.97879999999998</v>
       </c>
       <c r="C1465">
         <v>3130</v>
@@ -29923,7 +29925,7 @@
         <v>45874</v>
       </c>
       <c r="B1466">
-        <v>798.29700000000003</v>
+        <v>797.76139999999998</v>
       </c>
       <c r="C1466">
         <v>3130</v>
@@ -29943,7 +29945,7 @@
         <v>45875</v>
       </c>
       <c r="B1467">
-        <v>801.97900000000004</v>
+        <v>801.42349999999999</v>
       </c>
       <c r="C1467">
         <v>3130</v>
@@ -29963,7 +29965,7 @@
         <v>45876</v>
       </c>
       <c r="B1468">
-        <v>805.52760000000001</v>
+        <v>804.99</v>
       </c>
       <c r="C1468">
         <v>3130</v>
@@ -29983,7 +29985,7 @@
         <v>45877</v>
       </c>
       <c r="B1469">
-        <v>809.06060000000002</v>
+        <v>808.54269999999997</v>
       </c>
       <c r="C1469">
         <v>3186</v>
@@ -30003,7 +30005,7 @@
         <v>45880</v>
       </c>
       <c r="B1470">
-        <v>820.99159999999995</v>
+        <v>820.9914</v>
       </c>
       <c r="C1470">
         <v>3186</v>
@@ -30023,7 +30025,7 @@
         <v>45881</v>
       </c>
       <c r="B1471">
-        <v>823.95899999999995</v>
+        <v>823.9588</v>
       </c>
       <c r="C1471">
         <v>3186</v>
@@ -30043,7 +30045,7 @@
         <v>45882</v>
       </c>
       <c r="B1472">
-        <v>826.69330000000002</v>
+        <v>826.69320000000005</v>
       </c>
       <c r="C1472">
         <v>3186</v>
@@ -30063,7 +30065,7 @@
         <v>45883</v>
       </c>
       <c r="B1473">
-        <v>829.56209999999999</v>
+        <v>829.56190000000004</v>
       </c>
       <c r="C1473">
         <v>3186</v>
@@ -30083,7 +30085,7 @@
         <v>45884</v>
       </c>
       <c r="B1474">
-        <v>833.09230000000002</v>
+        <v>833.09209999999996</v>
       </c>
       <c r="C1474">
         <v>3199</v>
@@ -30103,7 +30105,7 @@
         <v>45887</v>
       </c>
       <c r="B1475">
-        <v>843.77719999999999</v>
+        <v>843.77710000000002</v>
       </c>
       <c r="C1475">
         <v>3199</v>
@@ -30123,7 +30125,7 @@
         <v>45888</v>
       </c>
       <c r="B1476">
-        <v>847.05359999999996</v>
+        <v>847.05349999999999</v>
       </c>
       <c r="C1476">
         <v>3199</v>
@@ -30303,7 +30305,7 @@
         <v>45901</v>
       </c>
       <c r="B1485">
-        <v>887.90719999999999</v>
+        <v>887.90700000000004</v>
       </c>
       <c r="C1485">
         <v>3272</v>
@@ -30323,7 +30325,7 @@
         <v>45902</v>
       </c>
       <c r="B1486">
-        <v>890.24080000000004</v>
+        <v>890.2405</v>
       </c>
       <c r="C1486">
         <v>3272</v>
@@ -30343,7 +30345,7 @@
         <v>45903</v>
       </c>
       <c r="B1487">
-        <v>892.88390000000004</v>
+        <v>892.88340000000005</v>
       </c>
       <c r="C1487">
         <v>3272</v>
@@ -30363,7 +30365,7 @@
         <v>45904</v>
       </c>
       <c r="B1488">
-        <v>895.52139999999997</v>
+        <v>895.52089999999998</v>
       </c>
       <c r="C1488">
         <v>3272</v>
@@ -30383,7 +30385,7 @@
         <v>45905</v>
       </c>
       <c r="B1489">
-        <v>897.91800000000001</v>
+        <v>897.91759999999999</v>
       </c>
       <c r="C1489">
         <v>3343</v>
@@ -30403,7 +30405,7 @@
         <v>45908</v>
       </c>
       <c r="B1490">
-        <v>905.81290000000001</v>
+        <v>905.8999</v>
       </c>
       <c r="C1490">
         <v>3343</v>
@@ -30423,7 +30425,7 @@
         <v>45909</v>
       </c>
       <c r="B1491">
-        <v>907.25829999999996</v>
+        <v>907.25800000000004</v>
       </c>
       <c r="C1491">
         <v>3343</v>
@@ -30443,7 +30445,7 @@
         <v>45910</v>
       </c>
       <c r="B1492">
-        <v>908.58079999999995</v>
+        <v>908.66750000000002</v>
       </c>
       <c r="C1492">
         <v>3343</v>
@@ -30463,7 +30465,7 @@
         <v>45911</v>
       </c>
       <c r="B1493">
-        <v>910.05820000000006</v>
+        <v>910.06029999999998</v>
       </c>
       <c r="C1493">
         <v>3343</v>
@@ -30483,7 +30485,7 @@
         <v>45912</v>
       </c>
       <c r="B1494">
-        <v>912.0317</v>
+        <v>912.03150000000005</v>
       </c>
       <c r="C1494">
         <v>3433</v>
@@ -30583,7 +30585,7 @@
         <v>45919</v>
       </c>
       <c r="B1499">
-        <v>926.39549999999997</v>
+        <v>926.39559999999994</v>
       </c>
       <c r="C1499">
         <v>3508</v>
@@ -30603,7 +30605,7 @@
         <v>45922</v>
       </c>
       <c r="B1500">
-        <v>933.05769999999995</v>
+        <v>933.05790000000002</v>
       </c>
       <c r="C1500">
         <v>3508</v>
@@ -30623,7 +30625,7 @@
         <v>45923</v>
       </c>
       <c r="B1501">
-        <v>933.88649999999996</v>
+        <v>933.88670000000002</v>
       </c>
       <c r="C1501">
         <v>3508</v>
@@ -30643,7 +30645,7 @@
         <v>45924</v>
       </c>
       <c r="B1502">
-        <v>934.61450000000002</v>
+        <v>934.62249999999995</v>
       </c>
       <c r="C1502">
         <v>3508</v>
@@ -30652,7 +30654,7 @@
         <v>4.6840999999999999</v>
       </c>
       <c r="E1502">
-        <v>191.09270000000001</v>
+        <v>191.0942</v>
       </c>
       <c r="F1502">
         <v>100.3999</v>
@@ -30663,7 +30665,7 @@
         <v>45925</v>
       </c>
       <c r="B1503">
-        <v>935.33680000000004</v>
+        <v>935.33849999999995</v>
       </c>
       <c r="C1503">
         <v>3508</v>
@@ -30672,7 +30674,7 @@
         <v>4.6840999999999999</v>
       </c>
       <c r="E1503">
-        <v>191.1438</v>
+        <v>191.14529999999999</v>
       </c>
       <c r="F1503">
         <v>100.5141</v>
@@ -30683,16 +30685,16 @@
         <v>45926</v>
       </c>
       <c r="B1504">
-        <v>936.27409999999998</v>
+        <v>936.31659999999999</v>
       </c>
       <c r="C1504">
-        <v>3508</v>
+        <v>3561</v>
       </c>
       <c r="D1504">
         <v>4.6840999999999999</v>
       </c>
       <c r="E1504">
-        <v>191.23269999999999</v>
+        <v>191.23419999999999</v>
       </c>
       <c r="F1504">
         <v>100.68340000000001</v>
@@ -30703,19 +30705,139 @@
         <v>45929</v>
       </c>
       <c r="B1505">
-        <v>938.00620000000004</v>
+        <v>941.04049999999995</v>
       </c>
       <c r="C1505">
-        <v>3508</v>
+        <v>3561</v>
       </c>
       <c r="D1505">
-        <v>4.7023000000000001</v>
+        <v>4.7205000000000004</v>
       </c>
       <c r="E1505">
-        <v>191.52160000000001</v>
+        <v>191.8158</v>
       </c>
       <c r="F1505">
-        <v>100.9267</v>
+        <v>101.3305</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1506" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B1506">
+        <v>940.02449999999999</v>
+      </c>
+      <c r="C1506">
+        <v>3561</v>
+      </c>
+      <c r="D1506">
+        <v>4.6475</v>
+      </c>
+      <c r="E1506">
+        <v>191.69210000000001</v>
+      </c>
+      <c r="F1506">
+        <v>101.65519999999999</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1507" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B1507">
+        <v>942.53660000000002</v>
+      </c>
+      <c r="C1507">
+        <v>3561</v>
+      </c>
+      <c r="D1507">
+        <v>4.6326000000000001</v>
+      </c>
+      <c r="E1507">
+        <v>191.4178</v>
+      </c>
+      <c r="F1507">
+        <v>101.8959</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1508" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B1508">
+        <v>942.02909999999997</v>
+      </c>
+      <c r="C1508">
+        <v>3561</v>
+      </c>
+      <c r="D1508">
+        <v>4.6729000000000003</v>
+      </c>
+      <c r="E1508">
+        <v>191.14689999999999</v>
+      </c>
+      <c r="F1508">
+        <v>101.9522</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1509" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B1509">
+        <v>942.79989999999998</v>
+      </c>
+      <c r="C1509">
+        <v>3561</v>
+      </c>
+      <c r="D1509">
+        <v>4.9048999999999996</v>
+      </c>
+      <c r="E1509">
+        <v>191.1414</v>
+      </c>
+      <c r="F1509">
+        <v>102.3736</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1510" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B1510">
+        <v>945.7654</v>
+      </c>
+      <c r="C1510">
+        <v>3561</v>
+      </c>
+      <c r="D1510">
+        <v>5.2081999999999997</v>
+      </c>
+      <c r="E1510">
+        <v>191.62280000000001</v>
+      </c>
+      <c r="F1510">
+        <v>102.908</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1511" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B1511">
+        <v>945.7654</v>
+      </c>
+      <c r="C1511">
+        <v>3561</v>
+      </c>
+      <c r="D1511">
+        <v>5.2081999999999997</v>
+      </c>
+      <c r="E1511">
+        <v>191.62280000000001</v>
+      </c>
+      <c r="F1511">
+        <v>102.908</v>
       </c>
     </row>
   </sheetData>
@@ -30725,10 +30847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:C1243"/>
+  <dimension ref="A1:C1249"/>
   <sheetViews>
-    <sheetView topLeftCell="A1207" workbookViewId="0">
-      <selection activeCell="K1231" sqref="K1231"/>
+    <sheetView topLeftCell="A1231" workbookViewId="0">
+      <selection activeCell="E1250" sqref="E1250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30782,14 +30904,14 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1237")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1243")</f>
         <v>44197</v>
       </c>
       <c r="B7">
         <v>32.590000000000003</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1237")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1243")</f>
         <v>19.074999999999999</v>
       </c>
     </row>
@@ -44383,10 +44505,76 @@
         <v>45929</v>
       </c>
       <c r="B1243">
-        <v>75.040000000000006</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="C1243">
         <v>32</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1244" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B1244">
+        <v>75.72</v>
+      </c>
+      <c r="C1244">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1245" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B1245">
+        <v>76.33</v>
+      </c>
+      <c r="C1245">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1246" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B1246">
+        <v>77.430000000000007</v>
+      </c>
+      <c r="C1246">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1247" s="2">
+        <v>45933</v>
+      </c>
+      <c r="B1247">
+        <v>79.16</v>
+      </c>
+      <c r="C1247">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1248" s="2">
+        <v>45936</v>
+      </c>
+      <c r="B1248">
+        <v>78.75</v>
+      </c>
+      <c r="C1248">
+        <v>33.15</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1249" s="2">
+        <v>45937</v>
+      </c>
+      <c r="B1249">
+        <v>78.41</v>
+      </c>
+      <c r="C1249">
+        <v>33.299999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -44399,7 +44587,7 @@
   <dimension ref="A1:D1392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gas storages.xlsx
+++ b/Gas storages.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\gvaps1\USR6\CHGE\desktop\EUA dashboard 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F388D893-EA5F-4900-85DA-B7CF470F7C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4F29B-F5C6-438A-A119-B6AC0674447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F907BD33-5E94-4CC9-9082-BD4BC09FA10B}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks" sheetId="1" r:id="rId1"/>
     <sheet name="Prices" sheetId="2" r:id="rId2"/>
-    <sheet name="Volumes" sheetId="4" r:id="rId3"/>
-    <sheet name="Correl EUA vs stocks" sheetId="3" r:id="rId4"/>
+    <sheet name="Correl EUA vs stocks" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" hidden="1">Stocks!$A$1:$F$7</definedName>
@@ -206,40 +205,40 @@
         <stp>PX_LAST</stp>
         <tr r="D5" s="2"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C4</stp>
         <stp>PX_LAST</stp>
         <tr r="D5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C5</stp>
         <stp>PX_LAST</stp>
         <tr r="E5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C6</stp>
         <stp>PX_LAST</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C2</stp>
         <stp>PX_LAST</stp>
         <tr r="B5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp t="s">
+        <v>Last Price</v>
         <stp/>
         <stp>##V3_BFIELDINFOV12</stp>
         <stp>[Gas storages.xlsx]Stocks!R5C3</stp>
@@ -248,8 +247,8 @@
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDH|1906060637239721543</stp>
         <tr r="A7" s="2"/>
@@ -266,14 +265,16 @@
         <stp>BDH|5828156284080324637</stp>
         <tr r="A7" s="3"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
         <stp>BDH|1378406766753827437</stp>
         <tr r="C7" s="3"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDH|1535757799422472922</stp>
         <tr r="D7" s="2"/>
@@ -658,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900AD71-E3B4-44B6-951D-A8605D5D6C7F}">
-  <dimension ref="A1:F1511"/>
+  <dimension ref="A1:F1516"/>
   <sheetViews>
-    <sheetView topLeftCell="A1475" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L11"/>
+    <sheetView tabSelected="1" topLeftCell="A1063" workbookViewId="0">
+      <selection activeCell="I1084" sqref="I1084"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,26 +766,26 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1505")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=1510")</f>
         <v>43831</v>
       </c>
       <c r="B7">
         <v>990.32669999999996</v>
       </c>
       <c r="C7">
-        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1505")</f>
+        <f>_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1510")</f>
         <v>3192</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1505")</f>
+        <f>_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1510")</f>
         <v>11.5663</v>
       </c>
       <c r="E7">
-        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1505")</f>
+        <f>_xll.BDH(E$4,E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1510")</f>
         <v>233.00030000000001</v>
       </c>
       <c r="F7">
-        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1505")</f>
+        <f>_xll.BDH(F$4,F$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=1510")</f>
         <v>107.5916</v>
       </c>
     </row>
@@ -30753,7 +30754,7 @@
         <v>45930</v>
       </c>
       <c r="B1506">
-        <v>940.02449999999999</v>
+        <v>940.02430000000004</v>
       </c>
       <c r="C1506">
         <v>3561</v>
@@ -30773,7 +30774,7 @@
         <v>45931</v>
       </c>
       <c r="B1507">
-        <v>942.53660000000002</v>
+        <v>942.53650000000005</v>
       </c>
       <c r="C1507">
         <v>3561</v>
@@ -30793,7 +30794,7 @@
         <v>45932</v>
       </c>
       <c r="B1508">
-        <v>942.02909999999997</v>
+        <v>942.02890000000002</v>
       </c>
       <c r="C1508">
         <v>3561</v>
@@ -30813,10 +30814,10 @@
         <v>45933</v>
       </c>
       <c r="B1509">
-        <v>942.79989999999998</v>
+        <v>942.79970000000003</v>
       </c>
       <c r="C1509">
-        <v>3561</v>
+        <v>3641</v>
       </c>
       <c r="D1509">
         <v>4.9048999999999996</v>
@@ -30833,19 +30834,19 @@
         <v>45936</v>
       </c>
       <c r="B1510">
-        <v>945.7654</v>
+        <v>945.86860000000001</v>
       </c>
       <c r="C1510">
-        <v>3561</v>
+        <v>3641</v>
       </c>
       <c r="D1510">
-        <v>5.2081999999999997</v>
+        <v>5.2999000000000001</v>
       </c>
       <c r="E1510">
-        <v>191.62280000000001</v>
+        <v>191.14660000000001</v>
       </c>
       <c r="F1510">
-        <v>102.908</v>
+        <v>103.02979999999999</v>
       </c>
     </row>
     <row r="1511" spans="1:6" x14ac:dyDescent="0.25">
@@ -30853,19 +30854,119 @@
         <v>45937</v>
       </c>
       <c r="B1511">
-        <v>945.7654</v>
+        <v>945.60680000000002</v>
       </c>
       <c r="C1511">
-        <v>3561</v>
+        <v>3641</v>
       </c>
       <c r="D1511">
-        <v>5.2081999999999997</v>
+        <v>5.2999000000000001</v>
       </c>
       <c r="E1511">
-        <v>191.62280000000001</v>
+        <v>190.87620000000001</v>
       </c>
       <c r="F1511">
-        <v>102.908</v>
+        <v>103.12390000000001</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1512" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B1512">
+        <v>945.21100000000001</v>
+      </c>
+      <c r="C1512">
+        <v>3641</v>
+      </c>
+      <c r="D1512">
+        <v>5.2999000000000001</v>
+      </c>
+      <c r="E1512">
+        <v>190.70230000000001</v>
+      </c>
+      <c r="F1512">
+        <v>103.07859999999999</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1513" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B1513">
+        <v>945.1413</v>
+      </c>
+      <c r="C1513">
+        <v>3641</v>
+      </c>
+      <c r="D1513">
+        <v>5.2999000000000001</v>
+      </c>
+      <c r="E1513">
+        <v>190.703</v>
+      </c>
+      <c r="F1513">
+        <v>102.9772</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1514" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B1514">
+        <v>945.79960000000005</v>
+      </c>
+      <c r="C1514">
+        <v>3641</v>
+      </c>
+      <c r="D1514">
+        <v>5.2999000000000001</v>
+      </c>
+      <c r="E1514">
+        <v>190.7396</v>
+      </c>
+      <c r="F1514">
+        <v>103.143</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1515" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B1515">
+        <v>948.86329999999998</v>
+      </c>
+      <c r="C1515">
+        <v>3641</v>
+      </c>
+      <c r="D1515">
+        <v>5.2911000000000001</v>
+      </c>
+      <c r="E1515">
+        <v>190.91409999999999</v>
+      </c>
+      <c r="F1515">
+        <v>103.6765</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1516" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B1516">
+        <v>948.86329999999998</v>
+      </c>
+      <c r="C1516">
+        <v>3641</v>
+      </c>
+      <c r="D1516">
+        <v>5.2911000000000001</v>
+      </c>
+      <c r="E1516">
+        <v>190.91409999999999</v>
+      </c>
+      <c r="F1516">
+        <v>103.6765</v>
       </c>
     </row>
   </sheetData>
@@ -30875,10 +30976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC2F69-7C8C-4154-8046-9289F76718B0}">
-  <dimension ref="A1:E1249"/>
+  <dimension ref="A1:E1254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30948,7 +31049,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f>_xll.BDH(B$4,B$6:C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=3;rows=1243")</f>
+        <f>_xll.BDH(B$4,B$6:C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=3;rows=1248")</f>
         <v>44197</v>
       </c>
       <c r="B7">
@@ -30958,7 +31059,7 @@
         <v>104</v>
       </c>
       <c r="D7">
-        <f>_xll.BDH(D$4,D$6:E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=2;rows=1243")</f>
+        <f>_xll.BDH(D$4,D$6:E$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=2;rows=1248")</f>
         <v>19.074999999999999</v>
       </c>
       <c r="E7">
@@ -52067,15 +52168,100 @@
         <v>45937</v>
       </c>
       <c r="B1249">
-        <v>78.739999999999995</v>
+        <v>78.31</v>
       </c>
       <c r="C1249">
-        <v>19015</v>
+        <v>27641</v>
       </c>
       <c r="D1249">
-        <v>33.43</v>
+        <v>33.36</v>
       </c>
       <c r="E1249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1250" s="2">
+        <v>45938</v>
+      </c>
+      <c r="B1250">
+        <v>79.010000000000005</v>
+      </c>
+      <c r="C1250">
+        <v>19358</v>
+      </c>
+      <c r="D1250">
+        <v>32.65</v>
+      </c>
+      <c r="E1250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1251" s="2">
+        <v>45939</v>
+      </c>
+      <c r="B1251">
+        <v>79.23</v>
+      </c>
+      <c r="C1251">
+        <v>25180</v>
+      </c>
+      <c r="D1251">
+        <v>32.4</v>
+      </c>
+      <c r="E1251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1252" s="2">
+        <v>45940</v>
+      </c>
+      <c r="B1252">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="C1252">
+        <v>31642</v>
+      </c>
+      <c r="D1252">
+        <v>31.9</v>
+      </c>
+      <c r="E1252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1253" s="2">
+        <v>45943</v>
+      </c>
+      <c r="B1253">
+        <v>78.12</v>
+      </c>
+      <c r="C1253">
+        <v>32329</v>
+      </c>
+      <c r="D1253">
+        <v>31.375</v>
+      </c>
+      <c r="E1253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1254" s="2">
+        <v>45944</v>
+      </c>
+      <c r="B1254">
+        <v>77.150000000000006</v>
+      </c>
+      <c r="C1254">
+        <v>6026</v>
+      </c>
+      <c r="D1254">
+        <v>31.274999999999999</v>
+      </c>
+      <c r="E1254">
         <v>0</v>
       </c>
     </row>
@@ -52085,20 +52271,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA89DC26-9240-486A-88C3-7BFBEB8177A5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA1694F-2CC7-4C25-BDC0-AC1855FCDAD5}">
   <dimension ref="A1:D1392"/>
   <sheetViews>
